--- a/artfynd/A 379-2026 artfynd.xlsx
+++ b/artfynd/A 379-2026 artfynd.xlsx
@@ -680,41 +680,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131143977</v>
+        <v>131143973</v>
       </c>
       <c r="B2" t="n">
-        <v>80348</v>
+        <v>80377</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -722,10 +718,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503254</v>
+        <v>503418</v>
       </c>
       <c r="R2" t="n">
-        <v>7036092</v>
+        <v>7036017</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -950,39 +946,39 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131143975</v>
+        <v>131143977</v>
       </c>
       <c r="B4" t="n">
-        <v>80377</v>
+        <v>80348</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>med apothecier</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -992,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503441</v>
+        <v>503254</v>
       </c>
       <c r="R4" t="n">
-        <v>7036004</v>
+        <v>7036092</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1085,7 +1081,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131143973</v>
+        <v>131143975</v>
       </c>
       <c r="B5" t="n">
         <v>80377</v>
@@ -1115,7 +1111,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503418</v>
+        <v>503441</v>
       </c>
       <c r="R5" t="n">
-        <v>7036017</v>
+        <v>7036004</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1216,10 +1216,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131144271</v>
+        <v>131143999</v>
       </c>
       <c r="B6" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1227,21 +1227,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>503292</v>
+        <v>503460</v>
       </c>
       <c r="R6" t="n">
-        <v>7036126</v>
+        <v>7036014</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1292,11 +1292,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1314,22 +1309,17 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1347,7 +1337,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131144288</v>
+        <v>131143978</v>
       </c>
       <c r="B7" t="n">
         <v>80348</v>
@@ -1385,10 +1375,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>503258</v>
+        <v>503218</v>
       </c>
       <c r="R7" t="n">
-        <v>7035950</v>
+        <v>7036101</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1478,7 +1468,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131144278</v>
+        <v>131144271</v>
       </c>
       <c r="B8" t="n">
         <v>80348</v>
@@ -1516,10 +1506,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>503277</v>
+        <v>503292</v>
       </c>
       <c r="R8" t="n">
-        <v>7035964</v>
+        <v>7036126</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1609,10 +1599,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131143999</v>
+        <v>131144288</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1620,21 +1610,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1647,10 +1637,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>503460</v>
+        <v>503258</v>
       </c>
       <c r="R9" t="n">
-        <v>7036014</v>
+        <v>7035950</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1685,6 +1675,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1702,17 +1697,22 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131143978</v>
+        <v>131144278</v>
       </c>
       <c r="B10" t="n">
         <v>80348</v>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>503218</v>
+        <v>503277</v>
       </c>
       <c r="R10" t="n">
-        <v>7036101</v>
+        <v>7035964</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131144287</v>
+        <v>131143987</v>
       </c>
       <c r="B11" t="n">
         <v>80348</v>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503222</v>
+        <v>503418</v>
       </c>
       <c r="R11" t="n">
-        <v>7035916</v>
+        <v>7036017</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131144272</v>
+        <v>131144287</v>
       </c>
       <c r="B13" t="n">
         <v>80348</v>
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503267</v>
+        <v>503222</v>
       </c>
       <c r="R13" t="n">
-        <v>7036125</v>
+        <v>7035916</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131143987</v>
+        <v>131144272</v>
       </c>
       <c r="B14" t="n">
         <v>80348</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>503418</v>
+        <v>503267</v>
       </c>
       <c r="R14" t="n">
-        <v>7036017</v>
+        <v>7036125</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131144292</v>
+        <v>131144296</v>
       </c>
       <c r="B16" t="n">
         <v>80348</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>503355</v>
+        <v>503556</v>
       </c>
       <c r="R16" t="n">
-        <v>7035956</v>
+        <v>7036089</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131143984</v>
+        <v>131144292</v>
       </c>
       <c r="B17" t="n">
         <v>80348</v>
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>503375</v>
+        <v>503355</v>
       </c>
       <c r="R17" t="n">
-        <v>7036013</v>
+        <v>7035956</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Växer här på en rönn i äldre granskog.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2778,7 +2778,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131144296</v>
+        <v>131143980</v>
       </c>
       <c r="B18" t="n">
         <v>80348</v>
@@ -2808,7 +2808,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2816,10 +2820,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>503556</v>
+        <v>503337</v>
       </c>
       <c r="R18" t="n">
-        <v>7036089</v>
+        <v>7036003</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2856,7 +2860,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Rikligt med lunglavsbålar på en rönn.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2872,6 +2876,11 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -2909,7 +2918,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131143980</v>
+        <v>131143984</v>
       </c>
       <c r="B19" t="n">
         <v>80348</v>
@@ -2939,11 +2948,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2951,10 +2956,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>503337</v>
+        <v>503375</v>
       </c>
       <c r="R19" t="n">
-        <v>7036003</v>
+        <v>7036013</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2991,7 +2996,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Rikligt med lunglavsbålar på en rönn.</t>
+          <t>Växer här på en rönn i äldre granskog.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3007,11 +3012,6 @@
       <c r="AH19" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -3049,7 +3049,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131144274</v>
+        <v>131143986</v>
       </c>
       <c r="B20" t="n">
         <v>80348</v>
@@ -3079,7 +3079,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3087,10 +3091,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>503229</v>
+        <v>503382</v>
       </c>
       <c r="R20" t="n">
-        <v>7036101</v>
+        <v>7036010</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3127,7 +3131,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ymnigt med lunglav längs flera meter på en rönn.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3180,7 +3184,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131143986</v>
+        <v>131144274</v>
       </c>
       <c r="B21" t="n">
         <v>80348</v>
@@ -3210,11 +3214,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3222,10 +3222,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>503382</v>
+        <v>503229</v>
       </c>
       <c r="R21" t="n">
-        <v>7036010</v>
+        <v>7036101</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ymnigt med lunglav längs flera meter på en rönn.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3315,10 +3315,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131143998</v>
+        <v>131143976</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3326,21 +3326,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3353,10 +3353,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>503444</v>
+        <v>503419</v>
       </c>
       <c r="R22" t="n">
-        <v>7036006</v>
+        <v>7036154</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3391,11 +3391,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
@@ -3413,17 +3408,22 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3441,41 +3441,37 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131143972</v>
+        <v>131143989</v>
       </c>
       <c r="B23" t="n">
-        <v>80377</v>
+        <v>80348</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3483,10 +3479,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>503377</v>
+        <v>503448</v>
       </c>
       <c r="R23" t="n">
-        <v>7036016</v>
+        <v>7036030</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3523,7 +3519,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Lunglav på en gran vid en rönn med lunglav.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3543,22 +3539,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3576,10 +3572,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131143976</v>
+        <v>131143998</v>
       </c>
       <c r="B24" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3587,21 +3583,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3614,10 +3610,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>503419</v>
+        <v>503444</v>
       </c>
       <c r="R24" t="n">
-        <v>7036154</v>
+        <v>7036006</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3652,6 +3648,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3669,22 +3670,17 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3702,37 +3698,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131143989</v>
+        <v>131143972</v>
       </c>
       <c r="B25" t="n">
-        <v>80348</v>
+        <v>80377</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3740,10 +3740,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>503448</v>
+        <v>503377</v>
       </c>
       <c r="R25" t="n">
-        <v>7036030</v>
+        <v>7036016</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Lunglav på en gran vid en rönn med lunglav.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3800,22 +3800,22 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131144284</v>
+        <v>131144290</v>
       </c>
       <c r="B27" t="n">
         <v>80348</v>
@@ -4002,10 +4002,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>503203</v>
+        <v>503313</v>
       </c>
       <c r="R27" t="n">
-        <v>7035913</v>
+        <v>7035948</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131144290</v>
+        <v>131144284</v>
       </c>
       <c r="B28" t="n">
         <v>80348</v>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>503313</v>
+        <v>503203</v>
       </c>
       <c r="R28" t="n">
-        <v>7035948</v>
+        <v>7035913</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131144281</v>
+        <v>131143993</v>
       </c>
       <c r="B30" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4363,21 +4363,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>503194</v>
+        <v>503307</v>
       </c>
       <c r="R30" t="n">
-        <v>7035963</v>
+        <v>7036124</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4450,22 +4450,17 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4483,10 +4478,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131143994</v>
+        <v>131144281</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4494,21 +4489,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4521,10 +4516,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>503252</v>
+        <v>503194</v>
       </c>
       <c r="R31" t="n">
-        <v>7036082</v>
+        <v>7035963</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4561,7 +4556,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4581,17 +4576,22 @@
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131144293</v>
+        <v>131143994</v>
       </c>
       <c r="B32" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4620,21 +4620,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4647,10 +4647,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>503484</v>
+        <v>503252</v>
       </c>
       <c r="R32" t="n">
-        <v>7036019</v>
+        <v>7036082</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4707,22 +4707,17 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4740,10 +4735,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131143993</v>
+        <v>131144293</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4751,21 +4746,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4778,10 +4773,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>503307</v>
+        <v>503484</v>
       </c>
       <c r="R33" t="n">
-        <v>7036124</v>
+        <v>7036019</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4818,7 +4813,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4838,17 +4833,22 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4866,10 +4866,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131143996</v>
+        <v>131144259</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4877,28 +4877,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>med apothecier</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -4908,10 +4908,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>503386</v>
+        <v>503326</v>
       </c>
       <c r="R34" t="n">
-        <v>7036016</v>
+        <v>7035948</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4946,11 +4946,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4966,11 +4961,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
-        </is>
-      </c>
       <c r="AJ34" t="inlineStr">
         <is>
           <t>gran</t>
@@ -4983,12 +4973,12 @@
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5006,10 +4996,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131144264</v>
+        <v>131144269</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5017,31 +5007,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5049,10 +5034,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>503447</v>
+        <v>503190</v>
       </c>
       <c r="R35" t="n">
-        <v>7035991</v>
+        <v>7035938</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5089,7 +5074,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5098,6 +5083,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -5108,17 +5094,22 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5136,10 +5127,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131143967</v>
+        <v>131143996</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5147,29 +5138,28 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -5179,10 +5169,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>503201</v>
+        <v>503386</v>
       </c>
       <c r="R36" t="n">
-        <v>7036058</v>
+        <v>7036016</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5219,7 +5209,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Ringhack, färska, några meter upp på en granstam.</t>
+          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5228,6 +5218,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -5238,7 +5229,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
+          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -5253,12 +5244,12 @@
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5276,10 +5267,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131144269</v>
+        <v>131144294</v>
       </c>
       <c r="B37" t="n">
-        <v>80349</v>
+        <v>80348</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5287,21 +5278,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -5314,10 +5305,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>503190</v>
+        <v>503563</v>
       </c>
       <c r="R37" t="n">
-        <v>7035938</v>
+        <v>7036044</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5407,10 +5398,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131144259</v>
+        <v>131144264</v>
       </c>
       <c r="B38" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5418,28 +5409,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -5449,10 +5441,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>503326</v>
+        <v>503447</v>
       </c>
       <c r="R38" t="n">
-        <v>7035948</v>
+        <v>7035991</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5487,13 +5479,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5512,14 +5508,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, utan markontakt</t>
-        </is>
-      </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5537,10 +5528,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131144294</v>
+        <v>131143967</v>
       </c>
       <c r="B39" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5548,26 +5539,31 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5575,10 +5571,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>503563</v>
+        <v>503201</v>
       </c>
       <c r="R39" t="n">
-        <v>7036044</v>
+        <v>7036058</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5615,7 +5611,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, några meter upp på en granstam.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5624,7 +5620,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5633,24 +5628,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
+        </is>
+      </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131143979</v>
+        <v>131144285</v>
       </c>
       <c r="B48" t="n">
         <v>80348</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>503343</v>
+        <v>503209</v>
       </c>
       <c r="R48" t="n">
-        <v>7036013</v>
+        <v>7035903</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6778,6 +6778,11 @@
       <c r="AA48" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6830,10 +6835,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131144301</v>
+        <v>131143979</v>
       </c>
       <c r="B49" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6841,26 +6846,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6868,10 +6873,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>503583</v>
+        <v>503343</v>
       </c>
       <c r="R49" t="n">
-        <v>7036073</v>
+        <v>7036013</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6923,17 +6928,22 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6951,10 +6961,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131144285</v>
+        <v>131144301</v>
       </c>
       <c r="B50" t="n">
-        <v>80348</v>
+        <v>91828</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6962,26 +6972,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6989,10 +6999,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>503209</v>
+        <v>503583</v>
       </c>
       <c r="R50" t="n">
-        <v>7035903</v>
+        <v>7036073</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7027,11 +7037,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
@@ -7049,22 +7054,17 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7848,10 +7848,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131143997</v>
+        <v>131144275</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7859,21 +7859,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7886,10 +7886,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>503416</v>
+        <v>503195</v>
       </c>
       <c r="R57" t="n">
-        <v>7036029</v>
+        <v>7036062</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7924,6 +7924,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -7941,17 +7946,22 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7969,7 +7979,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131144275</v>
+        <v>131144291</v>
       </c>
       <c r="B58" t="n">
         <v>80348</v>
@@ -8007,10 +8017,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>503195</v>
+        <v>503317</v>
       </c>
       <c r="R58" t="n">
-        <v>7036062</v>
+        <v>7035948</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8100,10 +8110,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131144291</v>
+        <v>131143997</v>
       </c>
       <c r="B59" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -8111,21 +8121,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -8138,10 +8148,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>503317</v>
+        <v>503416</v>
       </c>
       <c r="R59" t="n">
-        <v>7035948</v>
+        <v>7036029</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8176,11 +8186,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
@@ -8198,22 +8203,17 @@
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8231,10 +8231,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131143991</v>
+        <v>131144280</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -8242,21 +8242,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -8269,10 +8269,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>503400</v>
+        <v>503251</v>
       </c>
       <c r="R60" t="n">
-        <v>7036159</v>
+        <v>7035966</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8307,6 +8307,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
@@ -8324,17 +8329,22 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8352,7 +8362,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131143995</v>
+        <v>131143991</v>
       </c>
       <c r="B61" t="n">
         <v>79243</v>
@@ -8390,10 +8400,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>503216</v>
+        <v>503400</v>
       </c>
       <c r="R61" t="n">
-        <v>7036078</v>
+        <v>7036159</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8473,10 +8483,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131144265</v>
+        <v>131144297</v>
       </c>
       <c r="B62" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8484,31 +8494,26 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -8516,10 +8521,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>503516</v>
+        <v>503354</v>
       </c>
       <c r="R62" t="n">
-        <v>7036022</v>
+        <v>7036143</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8565,6 +8570,7 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -8575,17 +8581,22 @@
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8603,10 +8614,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131144260</v>
+        <v>131143995</v>
       </c>
       <c r="B63" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8614,31 +8625,26 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -8646,10 +8652,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>503332</v>
+        <v>503216</v>
       </c>
       <c r="R63" t="n">
-        <v>7035948</v>
+        <v>7036078</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8684,17 +8690,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -8713,14 +8715,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM63" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8738,10 +8735,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131144280</v>
+        <v>131144260</v>
       </c>
       <c r="B64" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8749,26 +8746,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8776,10 +8778,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>503251</v>
+        <v>503332</v>
       </c>
       <c r="R64" t="n">
-        <v>7035966</v>
+        <v>7035948</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8816,7 +8818,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8825,7 +8827,6 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8836,22 +8837,22 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8869,10 +8870,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131144297</v>
+        <v>131144265</v>
       </c>
       <c r="B65" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8880,26 +8881,31 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8907,10 +8913,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>503354</v>
+        <v>503516</v>
       </c>
       <c r="R65" t="n">
-        <v>7036143</v>
+        <v>7036022</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8947,7 +8953,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8956,7 +8962,6 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8967,22 +8972,17 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM65" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -9000,10 +9000,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131144001</v>
+        <v>131144283</v>
       </c>
       <c r="B66" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -9011,21 +9011,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -9038,10 +9038,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>503574</v>
+        <v>503196</v>
       </c>
       <c r="R66" t="n">
-        <v>7036113</v>
+        <v>7035909</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -9076,6 +9076,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
@@ -9093,17 +9098,22 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr"/>
@@ -9121,7 +9131,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131144268</v>
+        <v>131143974</v>
       </c>
       <c r="B67" t="n">
         <v>80377</v>
@@ -9151,11 +9161,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -9163,10 +9169,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>503554</v>
+        <v>503424</v>
       </c>
       <c r="R67" t="n">
-        <v>7036090</v>
+        <v>7036001</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -9256,41 +9262,37 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131143968</v>
+        <v>131144298</v>
       </c>
       <c r="B68" t="n">
-        <v>80377</v>
+        <v>80348</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -9298,10 +9300,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>503216</v>
+        <v>503191</v>
       </c>
       <c r="R68" t="n">
-        <v>7036102</v>
+        <v>7035913</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9391,37 +9393,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131144283</v>
+        <v>131144268</v>
       </c>
       <c r="B69" t="n">
-        <v>80348</v>
+        <v>80377</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -9429,10 +9435,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>503196</v>
+        <v>503554</v>
       </c>
       <c r="R69" t="n">
-        <v>7035909</v>
+        <v>7036090</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9522,7 +9528,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131143974</v>
+        <v>131143968</v>
       </c>
       <c r="B70" t="n">
         <v>80377</v>
@@ -9552,7 +9558,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9560,10 +9570,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>503424</v>
+        <v>503216</v>
       </c>
       <c r="R70" t="n">
-        <v>7036001</v>
+        <v>7036102</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9653,10 +9663,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131144298</v>
+        <v>131144001</v>
       </c>
       <c r="B71" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9664,21 +9674,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9691,10 +9701,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>503191</v>
+        <v>503574</v>
       </c>
       <c r="R71" t="n">
-        <v>7035913</v>
+        <v>7036113</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9729,11 +9739,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD71" t="b">
         <v>0</v>
       </c>
@@ -9751,22 +9756,17 @@
       </c>
       <c r="AJ71" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM71" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>
@@ -9914,10 +9914,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131144289</v>
+        <v>131144261</v>
       </c>
       <c r="B73" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9925,26 +9925,31 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -9952,10 +9957,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>503258</v>
+        <v>503332</v>
       </c>
       <c r="R73" t="n">
-        <v>7035952</v>
+        <v>7035950</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9992,7 +9997,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -10001,7 +10006,6 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -10012,22 +10016,22 @@
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -10045,10 +10049,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131144261</v>
+        <v>131144289</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -10056,31 +10060,26 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -10088,10 +10087,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>503332</v>
+        <v>503258</v>
       </c>
       <c r="R74" t="n">
-        <v>7035950</v>
+        <v>7035952</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -10128,7 +10127,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -10137,6 +10136,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -10147,22 +10147,22 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -10180,37 +10180,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131144302</v>
+        <v>131143970</v>
       </c>
       <c r="B75" t="n">
-        <v>79243</v>
+        <v>80377</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -10218,10 +10222,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>503606</v>
+        <v>503376</v>
       </c>
       <c r="R75" t="n">
-        <v>7036064</v>
+        <v>7035991</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -10273,17 +10277,22 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM75" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -10301,41 +10310,37 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131143970</v>
+        <v>131144302</v>
       </c>
       <c r="B76" t="n">
-        <v>80377</v>
+        <v>79243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -10343,10 +10348,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>503376</v>
+        <v>503606</v>
       </c>
       <c r="R76" t="n">
-        <v>7035991</v>
+        <v>7036064</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10398,22 +10403,17 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>

--- a/artfynd/A 379-2026 artfynd.xlsx
+++ b/artfynd/A 379-2026 artfynd.xlsx
@@ -680,37 +680,42 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131143973</v>
+        <v>131144266</v>
       </c>
       <c r="B2" t="n">
-        <v>80377</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -718,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503418</v>
+        <v>503547</v>
       </c>
       <c r="R2" t="n">
-        <v>7036017</v>
+        <v>7036037</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,7 +763,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -767,7 +772,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -778,22 +782,22 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -811,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131144266</v>
+        <v>131143977</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,29 +826,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -854,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503547</v>
+        <v>503254</v>
       </c>
       <c r="R3" t="n">
-        <v>7036037</v>
+        <v>7036092</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +897,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,6 +906,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -913,22 +917,22 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -946,39 +950,39 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131143977</v>
+        <v>131143975</v>
       </c>
       <c r="B4" t="n">
-        <v>80348</v>
+        <v>80378</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -988,10 +992,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503254</v>
+        <v>503441</v>
       </c>
       <c r="R4" t="n">
-        <v>7036092</v>
+        <v>7036004</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1081,10 +1085,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131143975</v>
+        <v>131143973</v>
       </c>
       <c r="B5" t="n">
-        <v>80377</v>
+        <v>80378</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1111,11 +1115,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503441</v>
+        <v>503418</v>
       </c>
       <c r="R5" t="n">
-        <v>7036004</v>
+        <v>7036017</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1219,7 +1219,7 @@
         <v>131143999</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>131143978</v>
       </c>
       <c r="B7" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>131144271</v>
       </c>
       <c r="B8" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>131144288</v>
       </c>
       <c r="B9" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>131144278</v>
       </c>
       <c r="B10" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131143987</v>
+        <v>131143990</v>
       </c>
       <c r="B11" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503418</v>
+        <v>503447</v>
       </c>
       <c r="R11" t="n">
-        <v>7036017</v>
+        <v>7036031</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131143990</v>
+        <v>131144287</v>
       </c>
       <c r="B12" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>503447</v>
+        <v>503222</v>
       </c>
       <c r="R12" t="n">
-        <v>7036031</v>
+        <v>7035916</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131144287</v>
+        <v>131144272</v>
       </c>
       <c r="B13" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503222</v>
+        <v>503267</v>
       </c>
       <c r="R13" t="n">
-        <v>7035916</v>
+        <v>7036125</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131144272</v>
+        <v>131143987</v>
       </c>
       <c r="B14" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>503267</v>
+        <v>503418</v>
       </c>
       <c r="R14" t="n">
-        <v>7036125</v>
+        <v>7036017</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2388,7 +2388,7 @@
         <v>131144279</v>
       </c>
       <c r="B15" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>131144296</v>
       </c>
       <c r="B16" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2647,10 +2647,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131144292</v>
+        <v>131143980</v>
       </c>
       <c r="B17" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2677,7 +2677,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2685,10 +2689,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>503355</v>
+        <v>503337</v>
       </c>
       <c r="R17" t="n">
-        <v>7035956</v>
+        <v>7036003</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2725,7 +2729,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Rikligt med lunglavsbålar på en rönn.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2741,6 +2745,11 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -2778,10 +2787,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131143980</v>
+        <v>131144292</v>
       </c>
       <c r="B18" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2808,11 +2817,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2820,10 +2825,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>503337</v>
+        <v>503355</v>
       </c>
       <c r="R18" t="n">
-        <v>7036003</v>
+        <v>7035956</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2860,7 +2865,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Rikligt med lunglavsbålar på en rönn.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2876,11 +2881,6 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>131143984</v>
       </c>
       <c r="B19" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131143986</v>
+        <v>131144274</v>
       </c>
       <c r="B20" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3079,11 +3079,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3091,10 +3087,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>503382</v>
+        <v>503229</v>
       </c>
       <c r="R20" t="n">
-        <v>7036010</v>
+        <v>7036101</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3131,7 +3127,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ymnigt med lunglav längs flera meter på en rönn.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3184,10 +3180,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131144274</v>
+        <v>131143986</v>
       </c>
       <c r="B21" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3214,7 +3210,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3222,10 +3222,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>503229</v>
+        <v>503382</v>
       </c>
       <c r="R21" t="n">
-        <v>7036101</v>
+        <v>7036010</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ymnigt med lunglav längs flera meter på en rönn.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3315,10 +3315,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131143976</v>
+        <v>131143998</v>
       </c>
       <c r="B22" t="n">
-        <v>80348</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3326,21 +3326,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3353,10 +3353,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>503419</v>
+        <v>503444</v>
       </c>
       <c r="R22" t="n">
-        <v>7036154</v>
+        <v>7036006</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3391,6 +3391,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
@@ -3408,22 +3413,17 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131143989</v>
+        <v>131143976</v>
       </c>
       <c r="B23" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3479,10 +3479,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>503448</v>
+        <v>503419</v>
       </c>
       <c r="R23" t="n">
-        <v>7036030</v>
+        <v>7036154</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3517,11 +3517,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Lunglav på en gran vid en rönn med lunglav.</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3539,22 +3534,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3572,37 +3567,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131143998</v>
+        <v>131143972</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>80378</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3610,10 +3609,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>503444</v>
+        <v>503377</v>
       </c>
       <c r="R24" t="n">
-        <v>7036006</v>
+        <v>7036016</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3650,7 +3649,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3670,17 +3669,22 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3698,41 +3702,37 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131143972</v>
+        <v>131143989</v>
       </c>
       <c r="B25" t="n">
-        <v>80377</v>
+        <v>80349</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3740,10 +3740,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>503377</v>
+        <v>503448</v>
       </c>
       <c r="R25" t="n">
-        <v>7036016</v>
+        <v>7036030</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Lunglav på en gran vid en rönn med lunglav.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3800,22 +3800,22 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3836,7 +3836,7 @@
         <v>131144299</v>
       </c>
       <c r="B26" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>131144290</v>
       </c>
       <c r="B27" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>131144284</v>
       </c>
       <c r="B28" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>131143988</v>
       </c>
       <c r="B29" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131143993</v>
+        <v>131144281</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4363,21 +4363,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>503307</v>
+        <v>503194</v>
       </c>
       <c r="R30" t="n">
-        <v>7036124</v>
+        <v>7035963</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4450,17 +4450,22 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4478,10 +4483,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131144281</v>
+        <v>131144293</v>
       </c>
       <c r="B31" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4516,10 +4521,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>503194</v>
+        <v>503484</v>
       </c>
       <c r="R31" t="n">
-        <v>7035963</v>
+        <v>7036019</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4609,10 +4614,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131143994</v>
+        <v>131143993</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4647,10 +4652,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>503252</v>
+        <v>503307</v>
       </c>
       <c r="R32" t="n">
-        <v>7036082</v>
+        <v>7036124</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4735,10 +4740,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131144293</v>
+        <v>131143994</v>
       </c>
       <c r="B33" t="n">
-        <v>80348</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4746,21 +4751,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4773,10 +4778,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>503484</v>
+        <v>503252</v>
       </c>
       <c r="R33" t="n">
-        <v>7036019</v>
+        <v>7036082</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4813,7 +4818,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4833,22 +4838,17 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4869,7 +4869,7 @@
         <v>131144259</v>
       </c>
       <c r="B34" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>131144269</v>
       </c>
       <c r="B35" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131143996</v>
+        <v>131144294</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5138,30 +5138,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5169,10 +5165,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>503386</v>
+        <v>503563</v>
       </c>
       <c r="R36" t="n">
-        <v>7036016</v>
+        <v>7036044</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5209,7 +5205,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5227,29 +5223,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
-        </is>
-      </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5267,10 +5258,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131144294</v>
+        <v>131144264</v>
       </c>
       <c r="B37" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5278,26 +5269,31 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5305,10 +5301,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>503563</v>
+        <v>503447</v>
       </c>
       <c r="R37" t="n">
-        <v>7036044</v>
+        <v>7035991</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5345,7 +5341,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5354,7 +5350,6 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -5365,22 +5360,17 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5398,7 +5388,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131144264</v>
+        <v>131143967</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -5431,7 +5421,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -5441,10 +5431,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>503447</v>
+        <v>503201</v>
       </c>
       <c r="R38" t="n">
-        <v>7035991</v>
+        <v>7036058</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5481,7 +5471,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack, färska, några meter upp på en granstam.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5498,6 +5488,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
+        </is>
+      </c>
       <c r="AJ38" t="inlineStr">
         <is>
           <t>gran</t>
@@ -5508,9 +5503,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5528,10 +5528,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131143967</v>
+        <v>131143996</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5539,29 +5539,28 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -5571,10 +5570,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>503201</v>
+        <v>503386</v>
       </c>
       <c r="R39" t="n">
-        <v>7036058</v>
+        <v>7036016</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5611,7 +5610,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack, färska, några meter upp på en granstam.</t>
+          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5620,6 +5619,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
+          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -5645,12 +5645,12 @@
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131143992</v>
+        <v>131144267</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5679,26 +5679,31 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5706,10 +5711,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>503345</v>
+        <v>503564</v>
       </c>
       <c r="R40" t="n">
-        <v>7036137</v>
+        <v>7036045</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5744,13 +5749,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5789,10 +5798,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131144270</v>
+        <v>131144263</v>
       </c>
       <c r="B41" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5800,26 +5809,31 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5827,10 +5841,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>503423</v>
+        <v>503363</v>
       </c>
       <c r="R41" t="n">
-        <v>7036145</v>
+        <v>7035960</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5867,7 +5881,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5876,7 +5890,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5887,22 +5900,22 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5920,10 +5933,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131144282</v>
+        <v>131143992</v>
       </c>
       <c r="B42" t="n">
-        <v>80348</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5931,21 +5944,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5958,10 +5971,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>503179</v>
+        <v>503345</v>
       </c>
       <c r="R42" t="n">
-        <v>7035940</v>
+        <v>7036137</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5996,11 +6009,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
@@ -6018,22 +6026,17 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6051,10 +6054,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131144276</v>
+        <v>131144270</v>
       </c>
       <c r="B43" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6089,10 +6092,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>503155</v>
+        <v>503423</v>
       </c>
       <c r="R43" t="n">
-        <v>7035984</v>
+        <v>7036145</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6182,10 +6185,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131144267</v>
+        <v>131144282</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6193,31 +6196,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6225,10 +6223,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>503564</v>
+        <v>503179</v>
       </c>
       <c r="R44" t="n">
-        <v>7036045</v>
+        <v>7035940</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6265,7 +6263,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6274,6 +6272,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6284,17 +6283,22 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6312,10 +6316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131144263</v>
+        <v>131144276</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6323,31 +6327,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6355,10 +6354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>503363</v>
+        <v>503155</v>
       </c>
       <c r="R45" t="n">
-        <v>7035960</v>
+        <v>7035984</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6395,7 +6394,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6404,6 +6403,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6414,22 +6414,22 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6450,7 +6450,7 @@
         <v>131144295</v>
       </c>
       <c r="B46" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>131143981</v>
       </c>
       <c r="B47" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>131144285</v>
       </c>
       <c r="B48" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>131143979</v>
       </c>
       <c r="B49" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>131144301</v>
       </c>
       <c r="B50" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -7082,32 +7082,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131143983</v>
+        <v>131144300</v>
       </c>
       <c r="B51" t="n">
-        <v>80348</v>
+        <v>80309</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -7120,10 +7120,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>503376</v>
+        <v>503318</v>
       </c>
       <c r="R51" t="n">
-        <v>7035991</v>
+        <v>7035950</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7156,6 +7156,11 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7208,32 +7213,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131144300</v>
+        <v>131143983</v>
       </c>
       <c r="B52" t="n">
-        <v>80308</v>
+        <v>80349</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -7246,10 +7251,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>503318</v>
+        <v>503376</v>
       </c>
       <c r="R52" t="n">
-        <v>7035950</v>
+        <v>7035991</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7282,11 +7287,6 @@
       <c r="AA52" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7342,7 +7342,7 @@
         <v>131144000</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>131144286</v>
       </c>
       <c r="B54" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>131144277</v>
       </c>
       <c r="B55" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7722,10 +7722,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131143982</v>
+        <v>131144260</v>
       </c>
       <c r="B56" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7733,26 +7733,31 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7760,10 +7765,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>503364</v>
+        <v>503332</v>
       </c>
       <c r="R56" t="n">
-        <v>7035989</v>
+        <v>7035948</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7798,13 +7803,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7815,22 +7824,22 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM56" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7848,10 +7857,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131144275</v>
+        <v>131144265</v>
       </c>
       <c r="B57" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7859,26 +7868,31 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7886,10 +7900,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>503195</v>
+        <v>503516</v>
       </c>
       <c r="R57" t="n">
-        <v>7036062</v>
+        <v>7036022</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7926,7 +7940,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7935,7 +7949,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7946,22 +7959,17 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7979,10 +7987,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131144291</v>
+        <v>131143982</v>
       </c>
       <c r="B58" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -8017,10 +8025,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>503317</v>
+        <v>503364</v>
       </c>
       <c r="R58" t="n">
-        <v>7035948</v>
+        <v>7035989</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8053,11 +8061,6 @@
       <c r="AA58" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -8113,7 +8116,7 @@
         <v>131143997</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -8231,10 +8234,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131144280</v>
+        <v>131143991</v>
       </c>
       <c r="B60" t="n">
-        <v>80348</v>
+        <v>79244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -8242,21 +8245,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -8269,10 +8272,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>503251</v>
+        <v>503400</v>
       </c>
       <c r="R60" t="n">
-        <v>7035966</v>
+        <v>7036159</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8307,11 +8310,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
@@ -8329,22 +8327,17 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM60" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8362,10 +8355,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131143991</v>
+        <v>131143995</v>
       </c>
       <c r="B61" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8400,10 +8393,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>503400</v>
+        <v>503216</v>
       </c>
       <c r="R61" t="n">
-        <v>7036159</v>
+        <v>7036078</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8483,10 +8476,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131144297</v>
+        <v>131144280</v>
       </c>
       <c r="B62" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8521,10 +8514,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>503354</v>
+        <v>503251</v>
       </c>
       <c r="R62" t="n">
-        <v>7036143</v>
+        <v>7035966</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8614,10 +8607,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131143995</v>
+        <v>131144275</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8625,21 +8618,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -8652,10 +8645,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>503216</v>
+        <v>503195</v>
       </c>
       <c r="R63" t="n">
-        <v>7036078</v>
+        <v>7036062</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8690,6 +8683,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
@@ -8707,17 +8705,22 @@
       </c>
       <c r="AJ63" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8735,10 +8738,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131144260</v>
+        <v>131144291</v>
       </c>
       <c r="B64" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8746,31 +8749,26 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8778,7 +8776,7 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>503332</v>
+        <v>503317</v>
       </c>
       <c r="R64" t="n">
         <v>7035948</v>
@@ -8818,7 +8816,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8827,6 +8825,7 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8837,22 +8836,22 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8870,10 +8869,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131144265</v>
+        <v>131144297</v>
       </c>
       <c r="B65" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8881,31 +8880,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8913,10 +8907,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>503516</v>
+        <v>503354</v>
       </c>
       <c r="R65" t="n">
-        <v>7036022</v>
+        <v>7036143</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8953,7 +8947,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8962,6 +8956,7 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8972,17 +8967,22 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM65" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -9000,37 +9000,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131144283</v>
+        <v>131144268</v>
       </c>
       <c r="B66" t="n">
-        <v>80348</v>
+        <v>80378</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -9038,10 +9042,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>503196</v>
+        <v>503554</v>
       </c>
       <c r="R66" t="n">
-        <v>7035909</v>
+        <v>7036090</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -9131,10 +9135,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131143974</v>
+        <v>131143968</v>
       </c>
       <c r="B67" t="n">
-        <v>80377</v>
+        <v>80378</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -9161,7 +9165,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -9169,10 +9177,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>503424</v>
+        <v>503216</v>
       </c>
       <c r="R67" t="n">
-        <v>7036001</v>
+        <v>7036102</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -9262,10 +9270,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131144298</v>
+        <v>131144283</v>
       </c>
       <c r="B68" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -9300,10 +9308,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>503191</v>
+        <v>503196</v>
       </c>
       <c r="R68" t="n">
-        <v>7035913</v>
+        <v>7035909</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9393,10 +9401,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131144268</v>
+        <v>131143974</v>
       </c>
       <c r="B69" t="n">
-        <v>80377</v>
+        <v>80378</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -9423,11 +9431,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -9435,10 +9439,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>503554</v>
+        <v>503424</v>
       </c>
       <c r="R69" t="n">
-        <v>7036090</v>
+        <v>7036001</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9528,41 +9532,37 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131143968</v>
+        <v>131144298</v>
       </c>
       <c r="B70" t="n">
-        <v>80377</v>
+        <v>80349</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
@@ -9570,10 +9570,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>503216</v>
+        <v>503191</v>
       </c>
       <c r="R70" t="n">
-        <v>7036102</v>
+        <v>7035913</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9666,7 +9666,7 @@
         <v>131144001</v>
       </c>
       <c r="B71" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>131144289</v>
       </c>
       <c r="B74" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>131143970</v>
       </c>
       <c r="B75" t="n">
-        <v>80377</v>
+        <v>80378</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -10310,10 +10310,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131144302</v>
+        <v>131144273</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -10321,21 +10321,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -10348,10 +10348,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>503606</v>
+        <v>503267</v>
       </c>
       <c r="R76" t="n">
-        <v>7036064</v>
+        <v>7036145</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10386,6 +10386,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -10403,17 +10408,22 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10431,10 +10441,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131144273</v>
+        <v>131144302</v>
       </c>
       <c r="B77" t="n">
-        <v>80348</v>
+        <v>79244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -10442,21 +10452,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -10469,10 +10479,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>503267</v>
+        <v>503606</v>
       </c>
       <c r="R77" t="n">
-        <v>7036145</v>
+        <v>7036064</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10507,11 +10517,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
@@ -10529,22 +10534,17 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM77" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>

--- a/artfynd/A 379-2026 artfynd.xlsx
+++ b/artfynd/A 379-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131144266</v>
+        <v>131143977</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,29 +691,28 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -723,10 +722,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503547</v>
+        <v>503254</v>
       </c>
       <c r="R2" t="n">
-        <v>7036037</v>
+        <v>7036092</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -763,7 +762,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -772,6 +771,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -782,22 +782,22 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -815,39 +815,39 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131143977</v>
+        <v>131143975</v>
       </c>
       <c r="B3" t="n">
-        <v>80349</v>
+        <v>80378</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503254</v>
+        <v>503441</v>
       </c>
       <c r="R3" t="n">
-        <v>7036092</v>
+        <v>7036004</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131143975</v>
+        <v>131143973</v>
       </c>
       <c r="B4" t="n">
         <v>80378</v>
@@ -980,11 +980,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -992,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503441</v>
+        <v>503418</v>
       </c>
       <c r="R4" t="n">
-        <v>7036004</v>
+        <v>7036017</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1085,37 +1081,42 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131143973</v>
+        <v>131144266</v>
       </c>
       <c r="B5" t="n">
-        <v>80378</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1123,10 +1124,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503418</v>
+        <v>503547</v>
       </c>
       <c r="R5" t="n">
-        <v>7036017</v>
+        <v>7036037</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1163,7 +1164,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1172,7 +1173,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131143978</v>
+        <v>131144278</v>
       </c>
       <c r="B7" t="n">
         <v>80349</v>
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>503218</v>
+        <v>503277</v>
       </c>
       <c r="R7" t="n">
-        <v>7036101</v>
+        <v>7035964</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131144271</v>
+        <v>131143978</v>
       </c>
       <c r="B8" t="n">
         <v>80349</v>
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>503292</v>
+        <v>503218</v>
       </c>
       <c r="R8" t="n">
-        <v>7036126</v>
+        <v>7036101</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131144288</v>
+        <v>131144271</v>
       </c>
       <c r="B9" t="n">
         <v>80349</v>
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>503258</v>
+        <v>503292</v>
       </c>
       <c r="R9" t="n">
-        <v>7035950</v>
+        <v>7036126</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131144278</v>
+        <v>131144288</v>
       </c>
       <c r="B10" t="n">
         <v>80349</v>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>503277</v>
+        <v>503258</v>
       </c>
       <c r="R10" t="n">
-        <v>7035964</v>
+        <v>7035950</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131143990</v>
+        <v>131144272</v>
       </c>
       <c r="B11" t="n">
         <v>80349</v>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503447</v>
+        <v>503267</v>
       </c>
       <c r="R11" t="n">
-        <v>7036031</v>
+        <v>7036125</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131144287</v>
+        <v>131143990</v>
       </c>
       <c r="B12" t="n">
         <v>80349</v>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>503222</v>
+        <v>503447</v>
       </c>
       <c r="R12" t="n">
-        <v>7035916</v>
+        <v>7036031</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131144272</v>
+        <v>131144287</v>
       </c>
       <c r="B13" t="n">
         <v>80349</v>
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503267</v>
+        <v>503222</v>
       </c>
       <c r="R13" t="n">
-        <v>7036125</v>
+        <v>7035916</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131144279</v>
+        <v>131144292</v>
       </c>
       <c r="B15" t="n">
         <v>80349</v>
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>503274</v>
+        <v>503355</v>
       </c>
       <c r="R15" t="n">
-        <v>7035964</v>
+        <v>7035956</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131144296</v>
+        <v>131144279</v>
       </c>
       <c r="B16" t="n">
         <v>80349</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>503556</v>
+        <v>503274</v>
       </c>
       <c r="R16" t="n">
-        <v>7036089</v>
+        <v>7035964</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131143980</v>
+        <v>131144296</v>
       </c>
       <c r="B17" t="n">
         <v>80349</v>
@@ -2677,11 +2677,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2689,10 +2685,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>503337</v>
+        <v>503556</v>
       </c>
       <c r="R17" t="n">
-        <v>7036003</v>
+        <v>7036089</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2729,7 +2725,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Rikligt med lunglavsbålar på en rönn.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2745,11 +2741,6 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -2787,7 +2778,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131144292</v>
+        <v>131143980</v>
       </c>
       <c r="B18" t="n">
         <v>80349</v>
@@ -2817,7 +2808,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2825,10 +2820,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>503355</v>
+        <v>503337</v>
       </c>
       <c r="R18" t="n">
-        <v>7035956</v>
+        <v>7036003</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2865,7 +2860,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Rikligt med lunglavsbålar på en rönn.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2881,6 +2876,11 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -3049,7 +3049,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131144274</v>
+        <v>131143986</v>
       </c>
       <c r="B20" t="n">
         <v>80349</v>
@@ -3079,7 +3079,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3087,10 +3091,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>503229</v>
+        <v>503382</v>
       </c>
       <c r="R20" t="n">
-        <v>7036101</v>
+        <v>7036010</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3127,7 +3131,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ymnigt med lunglav längs flera meter på en rönn.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3180,7 +3184,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131143986</v>
+        <v>131144274</v>
       </c>
       <c r="B21" t="n">
         <v>80349</v>
@@ -3210,11 +3214,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3222,10 +3222,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>503382</v>
+        <v>503229</v>
       </c>
       <c r="R21" t="n">
-        <v>7036010</v>
+        <v>7036101</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ymnigt med lunglav längs flera meter på en rönn.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3315,37 +3315,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131143998</v>
+        <v>131143972</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3353,10 +3357,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>503444</v>
+        <v>503377</v>
       </c>
       <c r="R22" t="n">
-        <v>7036006</v>
+        <v>7036016</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3393,7 +3397,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3413,17 +3417,22 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3441,7 +3450,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131143976</v>
+        <v>131143989</v>
       </c>
       <c r="B23" t="n">
         <v>80349</v>
@@ -3479,10 +3488,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>503419</v>
+        <v>503448</v>
       </c>
       <c r="R23" t="n">
-        <v>7036154</v>
+        <v>7036030</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3517,6 +3526,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Lunglav på en gran vid en rönn med lunglav.</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3534,22 +3548,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3567,41 +3581,37 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131143972</v>
+        <v>131143976</v>
       </c>
       <c r="B24" t="n">
-        <v>80378</v>
+        <v>80349</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3609,10 +3619,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>503377</v>
+        <v>503419</v>
       </c>
       <c r="R24" t="n">
-        <v>7036016</v>
+        <v>7036154</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3645,11 +3655,6 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3702,10 +3707,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131143989</v>
+        <v>131143998</v>
       </c>
       <c r="B25" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3713,21 +3718,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3740,10 +3745,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>503448</v>
+        <v>503444</v>
       </c>
       <c r="R25" t="n">
-        <v>7036030</v>
+        <v>7036006</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3780,7 +3785,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Lunglav på en gran vid en rönn med lunglav.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3808,14 +3813,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131144299</v>
+        <v>131144290</v>
       </c>
       <c r="B26" t="n">
         <v>80349</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>503345</v>
+        <v>503313</v>
       </c>
       <c r="R26" t="n">
-        <v>7035956</v>
+        <v>7035948</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131144290</v>
+        <v>131144284</v>
       </c>
       <c r="B27" t="n">
         <v>80349</v>
@@ -4002,10 +4002,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>503313</v>
+        <v>503203</v>
       </c>
       <c r="R27" t="n">
-        <v>7035948</v>
+        <v>7035913</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131144284</v>
+        <v>131143988</v>
       </c>
       <c r="B28" t="n">
         <v>80349</v>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>503203</v>
+        <v>503421</v>
       </c>
       <c r="R28" t="n">
-        <v>7035913</v>
+        <v>7035997</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4169,11 +4169,6 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4226,7 +4221,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131143988</v>
+        <v>131144299</v>
       </c>
       <c r="B29" t="n">
         <v>80349</v>
@@ -4264,10 +4259,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>503421</v>
+        <v>503345</v>
       </c>
       <c r="R29" t="n">
-        <v>7035997</v>
+        <v>7035956</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4300,6 +4295,11 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4352,10 +4352,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131144281</v>
+        <v>131143993</v>
       </c>
       <c r="B30" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4363,21 +4363,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>503194</v>
+        <v>503307</v>
       </c>
       <c r="R30" t="n">
-        <v>7035963</v>
+        <v>7036124</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4450,22 +4450,17 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4483,7 +4478,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131144293</v>
+        <v>131144281</v>
       </c>
       <c r="B31" t="n">
         <v>80349</v>
@@ -4521,10 +4516,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>503484</v>
+        <v>503194</v>
       </c>
       <c r="R31" t="n">
-        <v>7036019</v>
+        <v>7035963</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4614,7 +4609,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131143993</v>
+        <v>131143994</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -4652,10 +4647,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>503307</v>
+        <v>503252</v>
       </c>
       <c r="R32" t="n">
-        <v>7036124</v>
+        <v>7036082</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4740,10 +4735,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131143994</v>
+        <v>131144293</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4751,21 +4746,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4778,10 +4773,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>503252</v>
+        <v>503484</v>
       </c>
       <c r="R33" t="n">
-        <v>7036082</v>
+        <v>7036019</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4818,7 +4813,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4838,17 +4833,22 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -5258,10 +5258,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131144264</v>
+        <v>131143996</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5269,29 +5269,28 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -5301,10 +5300,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>503447</v>
+        <v>503386</v>
       </c>
       <c r="R37" t="n">
-        <v>7035991</v>
+        <v>7036016</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5341,7 +5340,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5350,6 +5349,7 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -5358,6 +5358,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
+        </is>
+      </c>
       <c r="AJ37" t="inlineStr">
         <is>
           <t>gran</t>
@@ -5368,9 +5373,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5388,7 +5398,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131143967</v>
+        <v>131144264</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -5421,7 +5431,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -5431,10 +5441,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>503201</v>
+        <v>503447</v>
       </c>
       <c r="R38" t="n">
-        <v>7036058</v>
+        <v>7035991</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5471,7 +5481,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack, färska, några meter upp på en granstam.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5488,11 +5498,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
-        </is>
-      </c>
       <c r="AJ38" t="inlineStr">
         <is>
           <t>gran</t>
@@ -5503,14 +5508,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5528,10 +5528,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131143996</v>
+        <v>131143967</v>
       </c>
       <c r="B39" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5539,28 +5539,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -5570,10 +5571,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>503386</v>
+        <v>503201</v>
       </c>
       <c r="R39" t="n">
-        <v>7036016</v>
+        <v>7036058</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5610,7 +5611,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
+          <t>Ringhack, färska, några meter upp på en granstam.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5619,7 +5620,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
+          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -5645,12 +5645,12 @@
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131144267</v>
+        <v>131143992</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5679,31 +5679,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5711,10 +5706,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>503564</v>
+        <v>503345</v>
       </c>
       <c r="R40" t="n">
-        <v>7036045</v>
+        <v>7036137</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5749,17 +5744,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5798,10 +5789,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131144263</v>
+        <v>131144282</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5809,31 +5800,26 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5841,10 +5827,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>503363</v>
+        <v>503179</v>
       </c>
       <c r="R41" t="n">
-        <v>7035960</v>
+        <v>7035940</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5881,7 +5867,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5890,6 +5876,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5900,22 +5887,22 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5933,10 +5920,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131143992</v>
+        <v>131144270</v>
       </c>
       <c r="B42" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5944,21 +5931,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5971,10 +5958,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>503345</v>
+        <v>503423</v>
       </c>
       <c r="R42" t="n">
-        <v>7036137</v>
+        <v>7036145</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6009,6 +5996,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
@@ -6026,17 +6018,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6054,7 +6051,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131144270</v>
+        <v>131144276</v>
       </c>
       <c r="B43" t="n">
         <v>80349</v>
@@ -6092,10 +6089,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>503423</v>
+        <v>503155</v>
       </c>
       <c r="R43" t="n">
-        <v>7036145</v>
+        <v>7035984</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6185,10 +6182,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131144282</v>
+        <v>131144267</v>
       </c>
       <c r="B44" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6196,26 +6193,31 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6223,10 +6225,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>503179</v>
+        <v>503564</v>
       </c>
       <c r="R44" t="n">
-        <v>7035940</v>
+        <v>7036045</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6263,7 +6265,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6272,7 +6274,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6283,22 +6284,17 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,10 +6312,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131144276</v>
+        <v>131144263</v>
       </c>
       <c r="B45" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6327,26 +6323,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6354,10 +6355,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>503155</v>
+        <v>503363</v>
       </c>
       <c r="R45" t="n">
-        <v>7035984</v>
+        <v>7035960</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6394,7 +6395,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6403,7 +6404,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6414,22 +6414,22 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131144285</v>
+        <v>131144301</v>
       </c>
       <c r="B48" t="n">
-        <v>80349</v>
+        <v>91829</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6715,26 +6715,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>503209</v>
+        <v>503583</v>
       </c>
       <c r="R48" t="n">
-        <v>7035903</v>
+        <v>7036073</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6780,11 +6780,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
@@ -6802,22 +6797,17 @@
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM48" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6835,7 +6825,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131143979</v>
+        <v>131144285</v>
       </c>
       <c r="B49" t="n">
         <v>80349</v>
@@ -6873,10 +6863,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>503343</v>
+        <v>503209</v>
       </c>
       <c r="R49" t="n">
-        <v>7036013</v>
+        <v>7035903</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6909,6 +6899,11 @@
       <c r="AA49" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6961,10 +6956,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131144301</v>
+        <v>131143979</v>
       </c>
       <c r="B50" t="n">
-        <v>91829</v>
+        <v>80349</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6972,26 +6967,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6999,10 +6994,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>503583</v>
+        <v>503343</v>
       </c>
       <c r="R50" t="n">
-        <v>7036073</v>
+        <v>7036013</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7054,17 +7049,22 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7082,32 +7082,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131144300</v>
+        <v>131143983</v>
       </c>
       <c r="B51" t="n">
-        <v>80309</v>
+        <v>80349</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -7120,10 +7120,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>503318</v>
+        <v>503376</v>
       </c>
       <c r="R51" t="n">
-        <v>7035950</v>
+        <v>7035991</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7156,11 +7156,6 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7213,32 +7208,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131143983</v>
+        <v>131144300</v>
       </c>
       <c r="B52" t="n">
-        <v>80349</v>
+        <v>80309</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -7251,10 +7246,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>503376</v>
+        <v>503318</v>
       </c>
       <c r="R52" t="n">
-        <v>7035991</v>
+        <v>7035950</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7287,6 +7282,11 @@
       <c r="AA52" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7460,7 +7460,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131144286</v>
+        <v>131144277</v>
       </c>
       <c r="B54" t="n">
         <v>80349</v>
@@ -7498,10 +7498,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>503215</v>
+        <v>503292</v>
       </c>
       <c r="R54" t="n">
-        <v>7035916</v>
+        <v>7035968</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131144277</v>
+        <v>131144286</v>
       </c>
       <c r="B55" t="n">
         <v>80349</v>
@@ -7629,10 +7629,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>503292</v>
+        <v>503215</v>
       </c>
       <c r="R55" t="n">
-        <v>7035968</v>
+        <v>7035916</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7722,10 +7722,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131144260</v>
+        <v>131143997</v>
       </c>
       <c r="B56" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7733,31 +7733,26 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7765,10 +7760,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>503332</v>
+        <v>503416</v>
       </c>
       <c r="R56" t="n">
-        <v>7035948</v>
+        <v>7036029</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7803,17 +7798,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7832,14 +7823,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7857,10 +7843,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131144265</v>
+        <v>131144280</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7868,31 +7854,26 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7900,10 +7881,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>503516</v>
+        <v>503251</v>
       </c>
       <c r="R57" t="n">
-        <v>7036022</v>
+        <v>7035966</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7940,7 +7921,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7949,6 +7930,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7959,17 +7941,22 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7987,10 +7974,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131143982</v>
+        <v>131143991</v>
       </c>
       <c r="B58" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7998,21 +7985,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -8025,10 +8012,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>503364</v>
+        <v>503400</v>
       </c>
       <c r="R58" t="n">
-        <v>7035989</v>
+        <v>7036159</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8080,22 +8067,17 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8113,7 +8095,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131143997</v>
+        <v>131143995</v>
       </c>
       <c r="B59" t="n">
         <v>79244</v>
@@ -8151,10 +8133,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>503416</v>
+        <v>503216</v>
       </c>
       <c r="R59" t="n">
-        <v>7036029</v>
+        <v>7036078</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8234,10 +8216,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131143991</v>
+        <v>131143982</v>
       </c>
       <c r="B60" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -8245,21 +8227,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -8272,10 +8254,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>503400</v>
+        <v>503364</v>
       </c>
       <c r="R60" t="n">
-        <v>7036159</v>
+        <v>7035989</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8327,17 +8309,22 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8355,10 +8342,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131143995</v>
+        <v>131144275</v>
       </c>
       <c r="B61" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8366,21 +8353,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -8393,10 +8380,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>503216</v>
+        <v>503195</v>
       </c>
       <c r="R61" t="n">
-        <v>7036078</v>
+        <v>7036062</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8431,6 +8418,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
@@ -8448,17 +8440,22 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM61" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -8476,7 +8473,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131144280</v>
+        <v>131144291</v>
       </c>
       <c r="B62" t="n">
         <v>80349</v>
@@ -8514,10 +8511,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>503251</v>
+        <v>503317</v>
       </c>
       <c r="R62" t="n">
-        <v>7035966</v>
+        <v>7035948</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8607,7 +8604,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131144275</v>
+        <v>131144297</v>
       </c>
       <c r="B63" t="n">
         <v>80349</v>
@@ -8645,10 +8642,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>503195</v>
+        <v>503354</v>
       </c>
       <c r="R63" t="n">
-        <v>7036062</v>
+        <v>7036143</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8738,10 +8735,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131144291</v>
+        <v>131144260</v>
       </c>
       <c r="B64" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8749,26 +8746,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8776,7 +8778,7 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>503317</v>
+        <v>503332</v>
       </c>
       <c r="R64" t="n">
         <v>7035948</v>
@@ -8816,7 +8818,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8825,7 +8827,6 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8836,22 +8837,22 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8869,10 +8870,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131144297</v>
+        <v>131144265</v>
       </c>
       <c r="B65" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8880,26 +8881,31 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8907,10 +8913,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>503354</v>
+        <v>503516</v>
       </c>
       <c r="R65" t="n">
-        <v>7036143</v>
+        <v>7036022</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8947,7 +8953,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8956,7 +8962,6 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8967,22 +8972,17 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM65" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -9532,10 +9532,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131144298</v>
+        <v>131144001</v>
       </c>
       <c r="B70" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9543,21 +9543,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -9570,10 +9570,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>503191</v>
+        <v>503574</v>
       </c>
       <c r="R70" t="n">
-        <v>7035913</v>
+        <v>7036113</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9608,11 +9608,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
@@ -9630,22 +9625,17 @@
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM70" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9663,10 +9653,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131144001</v>
+        <v>131144298</v>
       </c>
       <c r="B71" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9674,21 +9664,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9701,10 +9691,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>503574</v>
+        <v>503191</v>
       </c>
       <c r="R71" t="n">
-        <v>7036113</v>
+        <v>7035913</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9739,6 +9729,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD71" t="b">
         <v>0</v>
       </c>
@@ -9756,17 +9751,22 @@
       </c>
       <c r="AJ71" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM71" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>
@@ -10310,10 +10310,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131144273</v>
+        <v>131144302</v>
       </c>
       <c r="B76" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -10321,21 +10321,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -10348,10 +10348,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>503267</v>
+        <v>503606</v>
       </c>
       <c r="R76" t="n">
-        <v>7036145</v>
+        <v>7036064</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10386,11 +10386,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -10408,22 +10403,17 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10441,10 +10431,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131144302</v>
+        <v>131144273</v>
       </c>
       <c r="B77" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -10452,21 +10442,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -10479,10 +10469,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>503606</v>
+        <v>503267</v>
       </c>
       <c r="R77" t="n">
-        <v>7036064</v>
+        <v>7036145</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10517,6 +10507,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
@@ -10534,17 +10529,22 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>

--- a/artfynd/A 379-2026 artfynd.xlsx
+++ b/artfynd/A 379-2026 artfynd.xlsx
@@ -950,37 +950,42 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131143973</v>
+        <v>131144266</v>
       </c>
       <c r="B4" t="n">
-        <v>80378</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -988,10 +993,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503418</v>
+        <v>503547</v>
       </c>
       <c r="R4" t="n">
-        <v>7036017</v>
+        <v>7036037</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,7 +1033,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1037,7 +1042,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1048,22 +1052,22 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1081,42 +1085,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131144266</v>
+        <v>131143973</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>80378</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1124,10 +1123,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503547</v>
+        <v>503418</v>
       </c>
       <c r="R5" t="n">
-        <v>7036037</v>
+        <v>7036017</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1163,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1173,6 +1172,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1216,10 +1216,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131143999</v>
+        <v>131143978</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1227,21 +1227,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>503460</v>
+        <v>503218</v>
       </c>
       <c r="R6" t="n">
-        <v>7036014</v>
+        <v>7036101</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1292,6 +1292,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1309,17 +1314,22 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1337,7 +1347,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131144278</v>
+        <v>131144271</v>
       </c>
       <c r="B7" t="n">
         <v>80349</v>
@@ -1375,10 +1385,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>503277</v>
+        <v>503292</v>
       </c>
       <c r="R7" t="n">
-        <v>7035964</v>
+        <v>7036126</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1468,7 +1478,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131143978</v>
+        <v>131144288</v>
       </c>
       <c r="B8" t="n">
         <v>80349</v>
@@ -1506,10 +1516,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>503218</v>
+        <v>503258</v>
       </c>
       <c r="R8" t="n">
-        <v>7036101</v>
+        <v>7035950</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1599,7 +1609,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131144271</v>
+        <v>131144278</v>
       </c>
       <c r="B9" t="n">
         <v>80349</v>
@@ -1637,10 +1647,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>503292</v>
+        <v>503277</v>
       </c>
       <c r="R9" t="n">
-        <v>7036126</v>
+        <v>7035964</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1730,10 +1740,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131144288</v>
+        <v>131143999</v>
       </c>
       <c r="B10" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1741,21 +1751,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1768,10 +1778,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>503258</v>
+        <v>503460</v>
       </c>
       <c r="R10" t="n">
-        <v>7035950</v>
+        <v>7036014</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1806,11 +1816,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1828,22 +1833,17 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131144272</v>
+        <v>131143990</v>
       </c>
       <c r="B11" t="n">
         <v>80349</v>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503267</v>
+        <v>503447</v>
       </c>
       <c r="R11" t="n">
-        <v>7036125</v>
+        <v>7036031</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131143990</v>
+        <v>131144287</v>
       </c>
       <c r="B12" t="n">
         <v>80349</v>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>503447</v>
+        <v>503222</v>
       </c>
       <c r="R12" t="n">
-        <v>7036031</v>
+        <v>7035916</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131144287</v>
+        <v>131143987</v>
       </c>
       <c r="B13" t="n">
         <v>80349</v>
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503222</v>
+        <v>503418</v>
       </c>
       <c r="R13" t="n">
-        <v>7035916</v>
+        <v>7036017</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131143987</v>
+        <v>131144272</v>
       </c>
       <c r="B14" t="n">
         <v>80349</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>503418</v>
+        <v>503267</v>
       </c>
       <c r="R14" t="n">
-        <v>7036017</v>
+        <v>7036125</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131144292</v>
+        <v>131143980</v>
       </c>
       <c r="B15" t="n">
         <v>80349</v>
@@ -2415,7 +2415,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2423,10 +2427,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>503355</v>
+        <v>503337</v>
       </c>
       <c r="R15" t="n">
-        <v>7035956</v>
+        <v>7036003</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2463,7 +2467,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Rikligt med lunglavsbålar på en rönn.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2479,6 +2483,11 @@
       <c r="AH15" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -2516,7 +2525,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131144279</v>
+        <v>131143984</v>
       </c>
       <c r="B16" t="n">
         <v>80349</v>
@@ -2554,10 +2563,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>503274</v>
+        <v>503375</v>
       </c>
       <c r="R16" t="n">
-        <v>7035964</v>
+        <v>7036013</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2594,7 +2603,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Växer här på en rönn i äldre granskog.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2647,7 +2656,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131144296</v>
+        <v>131144279</v>
       </c>
       <c r="B17" t="n">
         <v>80349</v>
@@ -2685,10 +2694,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>503556</v>
+        <v>503274</v>
       </c>
       <c r="R17" t="n">
-        <v>7036089</v>
+        <v>7035964</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2778,7 +2787,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131143980</v>
+        <v>131144296</v>
       </c>
       <c r="B18" t="n">
         <v>80349</v>
@@ -2808,11 +2817,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2820,10 +2825,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>503337</v>
+        <v>503556</v>
       </c>
       <c r="R18" t="n">
-        <v>7036003</v>
+        <v>7036089</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2860,7 +2865,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Rikligt med lunglavsbålar på en rönn.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2876,11 +2881,6 @@
       <c r="AH18" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -2918,7 +2918,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131143984</v>
+        <v>131144292</v>
       </c>
       <c r="B19" t="n">
         <v>80349</v>
@@ -2956,10 +2956,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>503375</v>
+        <v>503355</v>
       </c>
       <c r="R19" t="n">
-        <v>7036013</v>
+        <v>7035956</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Växer här på en rönn i äldre granskog.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3315,41 +3315,37 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131143972</v>
+        <v>131143998</v>
       </c>
       <c r="B22" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3357,10 +3353,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>503377</v>
+        <v>503444</v>
       </c>
       <c r="R22" t="n">
-        <v>7036016</v>
+        <v>7036006</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3397,7 +3393,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3417,22 +3413,17 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3450,7 +3441,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131143989</v>
+        <v>131143976</v>
       </c>
       <c r="B23" t="n">
         <v>80349</v>
@@ -3488,10 +3479,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>503448</v>
+        <v>503419</v>
       </c>
       <c r="R23" t="n">
-        <v>7036030</v>
+        <v>7036154</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3526,11 +3517,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Lunglav på en gran vid en rönn med lunglav.</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3548,22 +3534,22 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3581,7 +3567,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131143976</v>
+        <v>131143989</v>
       </c>
       <c r="B24" t="n">
         <v>80349</v>
@@ -3619,10 +3605,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>503419</v>
+        <v>503448</v>
       </c>
       <c r="R24" t="n">
-        <v>7036154</v>
+        <v>7036030</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3657,6 +3643,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Lunglav på en gran vid en rönn med lunglav.</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3674,22 +3665,22 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3707,37 +3698,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131143998</v>
+        <v>131143972</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3745,10 +3740,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>503444</v>
+        <v>503377</v>
       </c>
       <c r="R25" t="n">
-        <v>7036006</v>
+        <v>7036016</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3785,7 +3780,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3805,17 +3800,22 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131144290</v>
+        <v>131144299</v>
       </c>
       <c r="B26" t="n">
         <v>80349</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>503313</v>
+        <v>503345</v>
       </c>
       <c r="R26" t="n">
-        <v>7035948</v>
+        <v>7035956</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131144284</v>
+        <v>131144290</v>
       </c>
       <c r="B27" t="n">
         <v>80349</v>
@@ -4002,10 +4002,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>503203</v>
+        <v>503313</v>
       </c>
       <c r="R27" t="n">
-        <v>7035913</v>
+        <v>7035948</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131143988</v>
+        <v>131144284</v>
       </c>
       <c r="B28" t="n">
         <v>80349</v>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>503421</v>
+        <v>503203</v>
       </c>
       <c r="R28" t="n">
-        <v>7035997</v>
+        <v>7035913</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4169,6 +4169,11 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4221,7 +4226,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131144299</v>
+        <v>131143988</v>
       </c>
       <c r="B29" t="n">
         <v>80349</v>
@@ -4259,10 +4264,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>503345</v>
+        <v>503421</v>
       </c>
       <c r="R29" t="n">
-        <v>7035956</v>
+        <v>7035997</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4295,11 +4300,6 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4352,10 +4352,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131143993</v>
+        <v>131144293</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4363,21 +4363,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>503307</v>
+        <v>503484</v>
       </c>
       <c r="R30" t="n">
-        <v>7036124</v>
+        <v>7036019</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4450,17 +4450,22 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4478,10 +4483,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131144281</v>
+        <v>131143993</v>
       </c>
       <c r="B31" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4489,21 +4494,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4516,10 +4521,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>503194</v>
+        <v>503307</v>
       </c>
       <c r="R31" t="n">
-        <v>7035963</v>
+        <v>7036124</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4556,7 +4561,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4576,22 +4581,17 @@
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131144293</v>
+        <v>131144281</v>
       </c>
       <c r="B33" t="n">
         <v>80349</v>
@@ -4773,10 +4773,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>503484</v>
+        <v>503194</v>
       </c>
       <c r="R33" t="n">
-        <v>7036019</v>
+        <v>7035963</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131144269</v>
+        <v>131143996</v>
       </c>
       <c r="B35" t="n">
-        <v>80350</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5007,26 +5007,30 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5034,10 +5038,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>503190</v>
+        <v>503386</v>
       </c>
       <c r="R35" t="n">
-        <v>7035938</v>
+        <v>7036016</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5074,7 +5078,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5092,24 +5096,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
+        </is>
+      </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5127,10 +5136,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131144294</v>
+        <v>131144269</v>
       </c>
       <c r="B36" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5138,21 +5147,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -5165,10 +5174,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>503563</v>
+        <v>503190</v>
       </c>
       <c r="R36" t="n">
-        <v>7036044</v>
+        <v>7035938</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5258,10 +5267,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131143996</v>
+        <v>131144294</v>
       </c>
       <c r="B37" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5269,30 +5278,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5300,10 +5305,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>503386</v>
+        <v>503563</v>
       </c>
       <c r="R37" t="n">
-        <v>7036016</v>
+        <v>7036044</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5340,7 +5345,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5358,29 +5363,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
-        </is>
-      </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131143992</v>
+        <v>131144282</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5679,21 +5679,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5706,10 +5706,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>503345</v>
+        <v>503179</v>
       </c>
       <c r="R40" t="n">
-        <v>7036137</v>
+        <v>7035940</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5744,6 +5744,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5761,17 +5766,22 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5789,7 +5799,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131144282</v>
+        <v>131144270</v>
       </c>
       <c r="B41" t="n">
         <v>80349</v>
@@ -5827,10 +5837,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>503179</v>
+        <v>503423</v>
       </c>
       <c r="R41" t="n">
-        <v>7035940</v>
+        <v>7036145</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5920,10 +5930,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131144270</v>
+        <v>131143992</v>
       </c>
       <c r="B42" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5931,21 +5941,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5958,10 +5968,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>503423</v>
+        <v>503345</v>
       </c>
       <c r="R42" t="n">
-        <v>7036145</v>
+        <v>7036137</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5996,11 +6006,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
@@ -6018,22 +6023,17 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131144267</v>
+        <v>131144263</v>
       </c>
       <c r="B44" t="n">
         <v>57884</v>
@@ -6215,7 +6215,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -6225,10 +6225,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>503564</v>
+        <v>503363</v>
       </c>
       <c r="R44" t="n">
-        <v>7036045</v>
+        <v>7035960</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6292,9 +6292,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6312,7 +6317,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131144263</v>
+        <v>131144267</v>
       </c>
       <c r="B45" t="n">
         <v>57884</v>
@@ -6345,7 +6350,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -6355,10 +6360,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>503363</v>
+        <v>503564</v>
       </c>
       <c r="R45" t="n">
-        <v>7035960</v>
+        <v>7036045</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6395,7 +6400,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6422,14 +6427,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131144277</v>
+        <v>131144286</v>
       </c>
       <c r="B54" t="n">
         <v>80349</v>
@@ -7498,10 +7498,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>503292</v>
+        <v>503215</v>
       </c>
       <c r="R54" t="n">
-        <v>7035968</v>
+        <v>7035916</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131144286</v>
+        <v>131144277</v>
       </c>
       <c r="B55" t="n">
         <v>80349</v>
@@ -7629,10 +7629,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>503215</v>
+        <v>503292</v>
       </c>
       <c r="R55" t="n">
-        <v>7035916</v>
+        <v>7035968</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7843,10 +7843,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131144280</v>
+        <v>131143991</v>
       </c>
       <c r="B57" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7854,21 +7854,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7881,10 +7881,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>503251</v>
+        <v>503400</v>
       </c>
       <c r="R57" t="n">
-        <v>7035966</v>
+        <v>7036159</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7919,11 +7919,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -7941,22 +7936,17 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7974,7 +7964,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131143991</v>
+        <v>131143995</v>
       </c>
       <c r="B58" t="n">
         <v>79244</v>
@@ -8012,10 +8002,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>503400</v>
+        <v>503216</v>
       </c>
       <c r="R58" t="n">
-        <v>7036159</v>
+        <v>7036078</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8095,10 +8085,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131143995</v>
+        <v>131143982</v>
       </c>
       <c r="B59" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -8106,21 +8096,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -8133,10 +8123,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>503216</v>
+        <v>503364</v>
       </c>
       <c r="R59" t="n">
-        <v>7036078</v>
+        <v>7035989</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8188,17 +8178,22 @@
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM59" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -8216,7 +8211,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131143982</v>
+        <v>131144280</v>
       </c>
       <c r="B60" t="n">
         <v>80349</v>
@@ -8254,10 +8249,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>503364</v>
+        <v>503251</v>
       </c>
       <c r="R60" t="n">
-        <v>7035989</v>
+        <v>7035966</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8290,6 +8285,11 @@
       <c r="AA60" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -9000,41 +9000,37 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131144268</v>
+        <v>131144001</v>
       </c>
       <c r="B66" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -9042,10 +9038,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>503554</v>
+        <v>503574</v>
       </c>
       <c r="R66" t="n">
-        <v>7036090</v>
+        <v>7036113</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -9080,11 +9076,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
@@ -9102,22 +9093,17 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM66" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr"/>
@@ -9135,7 +9121,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131143968</v>
+        <v>131144268</v>
       </c>
       <c r="B67" t="n">
         <v>80378</v>
@@ -9177,10 +9163,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>503216</v>
+        <v>503554</v>
       </c>
       <c r="R67" t="n">
-        <v>7036102</v>
+        <v>7036090</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -9270,37 +9256,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131144283</v>
+        <v>131143968</v>
       </c>
       <c r="B68" t="n">
-        <v>80349</v>
+        <v>80378</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -9308,10 +9298,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>503196</v>
+        <v>503216</v>
       </c>
       <c r="R68" t="n">
-        <v>7035909</v>
+        <v>7036102</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9401,32 +9391,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131143974</v>
+        <v>131144283</v>
       </c>
       <c r="B69" t="n">
-        <v>80378</v>
+        <v>80349</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -9439,10 +9429,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>503424</v>
+        <v>503196</v>
       </c>
       <c r="R69" t="n">
-        <v>7036001</v>
+        <v>7035909</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9532,32 +9522,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131144001</v>
+        <v>131143974</v>
       </c>
       <c r="B70" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -9570,10 +9560,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>503574</v>
+        <v>503424</v>
       </c>
       <c r="R70" t="n">
-        <v>7036113</v>
+        <v>7036001</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9608,6 +9598,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
@@ -9625,17 +9620,22 @@
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -9914,10 +9914,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131144261</v>
+        <v>131144289</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9925,31 +9925,26 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -9957,10 +9952,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>503332</v>
+        <v>503258</v>
       </c>
       <c r="R73" t="n">
-        <v>7035950</v>
+        <v>7035952</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9997,7 +9992,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -10006,6 +10001,7 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -10016,22 +10012,22 @@
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -10049,10 +10045,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131144289</v>
+        <v>131144261</v>
       </c>
       <c r="B74" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -10060,26 +10056,31 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -10087,10 +10088,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>503258</v>
+        <v>503332</v>
       </c>
       <c r="R74" t="n">
-        <v>7035952</v>
+        <v>7035950</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -10127,7 +10128,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -10136,7 +10137,6 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -10147,22 +10147,22 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -10310,10 +10310,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131144302</v>
+        <v>131144273</v>
       </c>
       <c r="B76" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -10321,21 +10321,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -10348,10 +10348,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>503606</v>
+        <v>503267</v>
       </c>
       <c r="R76" t="n">
-        <v>7036064</v>
+        <v>7036145</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10386,6 +10386,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -10403,17 +10408,22 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10431,10 +10441,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131144273</v>
+        <v>131144302</v>
       </c>
       <c r="B77" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -10442,21 +10452,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -10469,10 +10479,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>503267</v>
+        <v>503606</v>
       </c>
       <c r="R77" t="n">
-        <v>7036145</v>
+        <v>7036064</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10507,11 +10517,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
@@ -10529,22 +10534,17 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM77" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>

--- a/artfynd/A 379-2026 artfynd.xlsx
+++ b/artfynd/A 379-2026 artfynd.xlsx
@@ -950,42 +950,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131144266</v>
+        <v>131143973</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>80378</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -993,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503547</v>
+        <v>503418</v>
       </c>
       <c r="R4" t="n">
-        <v>7036037</v>
+        <v>7036017</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1033,7 +1028,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1042,6 +1037,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1052,22 +1048,22 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1085,37 +1081,42 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131143973</v>
+        <v>131144266</v>
       </c>
       <c r="B5" t="n">
-        <v>80378</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1123,10 +1124,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503418</v>
+        <v>503547</v>
       </c>
       <c r="R5" t="n">
-        <v>7036017</v>
+        <v>7036037</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1163,7 +1164,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1172,7 +1173,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131143990</v>
+        <v>131144272</v>
       </c>
       <c r="B11" t="n">
         <v>80349</v>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503447</v>
+        <v>503267</v>
       </c>
       <c r="R11" t="n">
-        <v>7036031</v>
+        <v>7036125</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131144287</v>
+        <v>131143987</v>
       </c>
       <c r="B12" t="n">
         <v>80349</v>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>503222</v>
+        <v>503418</v>
       </c>
       <c r="R12" t="n">
-        <v>7035916</v>
+        <v>7036017</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131143987</v>
+        <v>131143990</v>
       </c>
       <c r="B13" t="n">
         <v>80349</v>
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503418</v>
+        <v>503447</v>
       </c>
       <c r="R13" t="n">
-        <v>7036017</v>
+        <v>7036031</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131144272</v>
+        <v>131144287</v>
       </c>
       <c r="B14" t="n">
         <v>80349</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>503267</v>
+        <v>503222</v>
       </c>
       <c r="R14" t="n">
-        <v>7036125</v>
+        <v>7035916</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131143980</v>
+        <v>131144279</v>
       </c>
       <c r="B15" t="n">
         <v>80349</v>
@@ -2415,11 +2415,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2427,10 +2423,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>503337</v>
+        <v>503274</v>
       </c>
       <c r="R15" t="n">
-        <v>7036003</v>
+        <v>7035964</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2467,7 +2463,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Rikligt med lunglavsbålar på en rönn.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2483,11 +2479,6 @@
       <c r="AH15" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -2525,7 +2516,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131143984</v>
+        <v>131144296</v>
       </c>
       <c r="B16" t="n">
         <v>80349</v>
@@ -2563,10 +2554,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>503375</v>
+        <v>503556</v>
       </c>
       <c r="R16" t="n">
-        <v>7036013</v>
+        <v>7036089</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2603,7 +2594,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Växer här på en rönn i äldre granskog.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2656,7 +2647,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131144279</v>
+        <v>131143980</v>
       </c>
       <c r="B17" t="n">
         <v>80349</v>
@@ -2686,7 +2677,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2694,10 +2689,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>503274</v>
+        <v>503337</v>
       </c>
       <c r="R17" t="n">
-        <v>7035964</v>
+        <v>7036003</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2734,7 +2729,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Rikligt med lunglavsbålar på en rönn.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2750,6 +2745,11 @@
       <c r="AH17" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -2787,7 +2787,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131144296</v>
+        <v>131144292</v>
       </c>
       <c r="B18" t="n">
         <v>80349</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>503556</v>
+        <v>503355</v>
       </c>
       <c r="R18" t="n">
-        <v>7036089</v>
+        <v>7035956</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131144292</v>
+        <v>131143984</v>
       </c>
       <c r="B19" t="n">
         <v>80349</v>
@@ -2956,10 +2956,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>503355</v>
+        <v>503375</v>
       </c>
       <c r="R19" t="n">
-        <v>7035956</v>
+        <v>7036013</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Växer här på en rönn i äldre granskog.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3049,7 +3049,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131143986</v>
+        <v>131144274</v>
       </c>
       <c r="B20" t="n">
         <v>80349</v>
@@ -3079,11 +3079,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3091,10 +3087,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>503382</v>
+        <v>503229</v>
       </c>
       <c r="R20" t="n">
-        <v>7036010</v>
+        <v>7036101</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3131,7 +3127,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ymnigt med lunglav längs flera meter på en rönn.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3184,7 +3180,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131144274</v>
+        <v>131143986</v>
       </c>
       <c r="B21" t="n">
         <v>80349</v>
@@ -3214,7 +3210,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3222,10 +3222,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>503229</v>
+        <v>503382</v>
       </c>
       <c r="R21" t="n">
-        <v>7036101</v>
+        <v>7036010</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ymnigt med lunglav längs flera meter på en rönn.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3315,37 +3315,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131143998</v>
+        <v>131143972</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>80378</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3353,10 +3357,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>503444</v>
+        <v>503377</v>
       </c>
       <c r="R22" t="n">
-        <v>7036006</v>
+        <v>7036016</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3393,7 +3397,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3413,17 +3417,22 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3698,41 +3707,37 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131143972</v>
+        <v>131143998</v>
       </c>
       <c r="B25" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3740,10 +3745,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>503377</v>
+        <v>503444</v>
       </c>
       <c r="R25" t="n">
-        <v>7036016</v>
+        <v>7036006</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3780,7 +3785,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3800,22 +3805,17 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131144293</v>
+        <v>131143993</v>
       </c>
       <c r="B30" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4363,21 +4363,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>503484</v>
+        <v>503307</v>
       </c>
       <c r="R30" t="n">
-        <v>7036019</v>
+        <v>7036124</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4450,22 +4450,17 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4483,7 +4478,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131143993</v>
+        <v>131143994</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -4521,10 +4516,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>503307</v>
+        <v>503252</v>
       </c>
       <c r="R31" t="n">
-        <v>7036124</v>
+        <v>7036082</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4609,10 +4604,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131143994</v>
+        <v>131144281</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4620,21 +4615,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4647,10 +4642,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>503252</v>
+        <v>503194</v>
       </c>
       <c r="R32" t="n">
-        <v>7036082</v>
+        <v>7035963</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4687,7 +4682,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4707,17 +4702,22 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131144281</v>
+        <v>131144293</v>
       </c>
       <c r="B33" t="n">
         <v>80349</v>
@@ -4773,10 +4773,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>503194</v>
+        <v>503484</v>
       </c>
       <c r="R33" t="n">
-        <v>7035963</v>
+        <v>7036019</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4866,10 +4866,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131144259</v>
+        <v>131143996</v>
       </c>
       <c r="B34" t="n">
-        <v>91809</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4877,28 +4877,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -4908,10 +4908,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>503326</v>
+        <v>503386</v>
       </c>
       <c r="R34" t="n">
-        <v>7035948</v>
+        <v>7036016</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4946,6 +4946,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4961,6 +4966,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
+        </is>
+      </c>
       <c r="AJ34" t="inlineStr">
         <is>
           <t>gran</t>
@@ -4973,12 +4983,12 @@
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4996,10 +5006,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131143996</v>
+        <v>131144294</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5007,30 +5017,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5038,10 +5044,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>503386</v>
+        <v>503563</v>
       </c>
       <c r="R35" t="n">
-        <v>7036016</v>
+        <v>7036044</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5078,7 +5084,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5096,29 +5102,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
-        </is>
-      </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5136,10 +5137,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131144269</v>
+        <v>131144264</v>
       </c>
       <c r="B36" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5147,26 +5148,31 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5174,10 +5180,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>503190</v>
+        <v>503447</v>
       </c>
       <c r="R36" t="n">
-        <v>7035938</v>
+        <v>7035991</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5214,7 +5220,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5223,7 +5229,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -5234,22 +5239,17 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5267,10 +5267,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131144294</v>
+        <v>131143967</v>
       </c>
       <c r="B37" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5278,26 +5278,31 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5305,10 +5310,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>503563</v>
+        <v>503201</v>
       </c>
       <c r="R37" t="n">
-        <v>7036044</v>
+        <v>7036058</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5345,7 +5350,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, några meter upp på en granstam.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5354,7 +5359,6 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -5363,24 +5367,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
+        </is>
+      </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5398,10 +5407,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131144264</v>
+        <v>131144259</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>91809</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5409,29 +5418,28 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -5441,10 +5449,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>503447</v>
+        <v>503326</v>
       </c>
       <c r="R38" t="n">
-        <v>7035991</v>
+        <v>7035948</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5479,17 +5487,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5508,9 +5512,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, utan markontakt</t>
+        </is>
+      </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5528,10 +5537,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131143967</v>
+        <v>131144269</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5539,31 +5548,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5571,10 +5575,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>503201</v>
+        <v>503190</v>
       </c>
       <c r="R39" t="n">
-        <v>7036058</v>
+        <v>7035938</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5611,7 +5615,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack, färska, några meter upp på en granstam.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5620,6 +5624,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5628,29 +5633,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
-        </is>
-      </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131144282</v>
+        <v>131143992</v>
       </c>
       <c r="B40" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5679,21 +5679,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5706,10 +5706,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>503179</v>
+        <v>503345</v>
       </c>
       <c r="R40" t="n">
-        <v>7035940</v>
+        <v>7036137</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5744,11 +5744,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5766,22 +5761,17 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5799,7 +5789,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131144270</v>
+        <v>131144276</v>
       </c>
       <c r="B41" t="n">
         <v>80349</v>
@@ -5837,10 +5827,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>503423</v>
+        <v>503155</v>
       </c>
       <c r="R41" t="n">
-        <v>7036145</v>
+        <v>7035984</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5930,10 +5920,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131143992</v>
+        <v>131144267</v>
       </c>
       <c r="B42" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5941,26 +5931,31 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5968,10 +5963,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>503345</v>
+        <v>503564</v>
       </c>
       <c r="R42" t="n">
-        <v>7036137</v>
+        <v>7036045</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6006,13 +6001,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -6051,10 +6050,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131144276</v>
+        <v>131144263</v>
       </c>
       <c r="B43" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6062,26 +6061,31 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6089,10 +6093,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>503155</v>
+        <v>503363</v>
       </c>
       <c r="R43" t="n">
-        <v>7035984</v>
+        <v>7035960</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6129,7 +6133,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6138,7 +6142,6 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -6149,22 +6152,22 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6182,10 +6185,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131144263</v>
+        <v>131144270</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6193,31 +6196,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6225,10 +6223,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>503363</v>
+        <v>503423</v>
       </c>
       <c r="R44" t="n">
-        <v>7035960</v>
+        <v>7036145</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6265,7 +6263,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6274,6 +6272,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6284,22 +6283,22 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6317,10 +6316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131144267</v>
+        <v>131144282</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6328,31 +6327,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6360,10 +6354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>503564</v>
+        <v>503179</v>
       </c>
       <c r="R45" t="n">
-        <v>7036045</v>
+        <v>7035940</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6400,7 +6394,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6409,6 +6403,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6419,17 +6414,22 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -7082,32 +7082,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131143983</v>
+        <v>131144300</v>
       </c>
       <c r="B51" t="n">
-        <v>80349</v>
+        <v>80309</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -7120,10 +7120,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>503376</v>
+        <v>503318</v>
       </c>
       <c r="R51" t="n">
-        <v>7035991</v>
+        <v>7035950</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7156,6 +7156,11 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7208,32 +7213,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131144300</v>
+        <v>131143983</v>
       </c>
       <c r="B52" t="n">
-        <v>80309</v>
+        <v>80349</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -7246,10 +7251,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>503318</v>
+        <v>503376</v>
       </c>
       <c r="R52" t="n">
-        <v>7035950</v>
+        <v>7035991</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7282,11 +7287,6 @@
       <c r="AA52" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7722,10 +7722,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131143997</v>
+        <v>131143982</v>
       </c>
       <c r="B56" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7733,21 +7733,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7760,10 +7760,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>503416</v>
+        <v>503364</v>
       </c>
       <c r="R56" t="n">
-        <v>7036029</v>
+        <v>7035989</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7815,17 +7815,22 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7843,10 +7848,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131143991</v>
+        <v>131144280</v>
       </c>
       <c r="B57" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7854,21 +7859,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7881,10 +7886,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>503400</v>
+        <v>503251</v>
       </c>
       <c r="R57" t="n">
-        <v>7036159</v>
+        <v>7035966</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7919,6 +7924,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -7936,17 +7946,22 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7964,10 +7979,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131143995</v>
+        <v>131144275</v>
       </c>
       <c r="B58" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7975,21 +7990,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -8002,10 +8017,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>503216</v>
+        <v>503195</v>
       </c>
       <c r="R58" t="n">
-        <v>7036078</v>
+        <v>7036062</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8040,6 +8055,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -8057,17 +8077,22 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8085,7 +8110,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131143982</v>
+        <v>131144291</v>
       </c>
       <c r="B59" t="n">
         <v>80349</v>
@@ -8123,10 +8148,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>503364</v>
+        <v>503317</v>
       </c>
       <c r="R59" t="n">
-        <v>7035989</v>
+        <v>7035948</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8159,6 +8184,11 @@
       <c r="AA59" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -8211,7 +8241,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131144280</v>
+        <v>131144297</v>
       </c>
       <c r="B60" t="n">
         <v>80349</v>
@@ -8249,10 +8279,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>503251</v>
+        <v>503354</v>
       </c>
       <c r="R60" t="n">
-        <v>7035966</v>
+        <v>7036143</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8342,10 +8372,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131144275</v>
+        <v>131144260</v>
       </c>
       <c r="B61" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8353,26 +8383,31 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -8380,10 +8415,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>503195</v>
+        <v>503332</v>
       </c>
       <c r="R61" t="n">
-        <v>7036062</v>
+        <v>7035948</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8420,7 +8455,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -8429,7 +8464,6 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -8440,22 +8474,22 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM61" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -8473,10 +8507,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131144291</v>
+        <v>131144265</v>
       </c>
       <c r="B62" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8484,26 +8518,31 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -8511,10 +8550,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>503317</v>
+        <v>503516</v>
       </c>
       <c r="R62" t="n">
-        <v>7035948</v>
+        <v>7036022</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8551,7 +8590,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8560,7 +8599,6 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -8571,22 +8609,17 @@
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM62" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8604,10 +8637,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131144297</v>
+        <v>131143997</v>
       </c>
       <c r="B63" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8615,21 +8648,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -8642,10 +8675,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>503354</v>
+        <v>503416</v>
       </c>
       <c r="R63" t="n">
-        <v>7036143</v>
+        <v>7036029</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8680,11 +8713,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
@@ -8702,22 +8730,17 @@
       </c>
       <c r="AJ63" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM63" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8735,10 +8758,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131144260</v>
+        <v>131143991</v>
       </c>
       <c r="B64" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8746,31 +8769,26 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8778,10 +8796,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>503332</v>
+        <v>503400</v>
       </c>
       <c r="R64" t="n">
-        <v>7035948</v>
+        <v>7036159</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8816,17 +8834,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8845,14 +8859,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM64" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8870,10 +8879,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131144265</v>
+        <v>131143995</v>
       </c>
       <c r="B65" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8881,31 +8890,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8913,10 +8917,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>503516</v>
+        <v>503216</v>
       </c>
       <c r="R65" t="n">
-        <v>7036022</v>
+        <v>7036078</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8951,17 +8955,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -9914,10 +9914,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131144289</v>
+        <v>131144261</v>
       </c>
       <c r="B73" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9925,26 +9925,31 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -9952,10 +9957,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>503258</v>
+        <v>503332</v>
       </c>
       <c r="R73" t="n">
-        <v>7035952</v>
+        <v>7035950</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9992,7 +9997,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -10001,7 +10006,6 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -10012,22 +10016,22 @@
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -10045,10 +10049,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131144261</v>
+        <v>131144289</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -10056,31 +10060,26 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -10088,10 +10087,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>503332</v>
+        <v>503258</v>
       </c>
       <c r="R74" t="n">
-        <v>7035950</v>
+        <v>7035952</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -10128,7 +10127,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -10137,6 +10136,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -10147,22 +10147,22 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -10180,41 +10180,37 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131143970</v>
+        <v>131144302</v>
       </c>
       <c r="B75" t="n">
-        <v>80378</v>
+        <v>79244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -10222,10 +10218,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>503376</v>
+        <v>503606</v>
       </c>
       <c r="R75" t="n">
-        <v>7035991</v>
+        <v>7036064</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -10277,22 +10273,17 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM75" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -10310,37 +10301,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131144273</v>
+        <v>131143970</v>
       </c>
       <c r="B76" t="n">
-        <v>80349</v>
+        <v>80378</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -10348,10 +10343,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>503267</v>
+        <v>503376</v>
       </c>
       <c r="R76" t="n">
-        <v>7036145</v>
+        <v>7035991</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10384,11 +10379,6 @@
       <c r="AA76" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -10441,10 +10431,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131144302</v>
+        <v>131144273</v>
       </c>
       <c r="B77" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -10452,21 +10442,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -10479,10 +10469,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>503606</v>
+        <v>503267</v>
       </c>
       <c r="R77" t="n">
-        <v>7036064</v>
+        <v>7036145</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10517,6 +10507,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
@@ -10534,17 +10529,22 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>

--- a/artfynd/A 379-2026 artfynd.xlsx
+++ b/artfynd/A 379-2026 artfynd.xlsx
@@ -1861,7 +1861,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131144272</v>
+        <v>131143990</v>
       </c>
       <c r="B11" t="n">
         <v>80349</v>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503267</v>
+        <v>503447</v>
       </c>
       <c r="R11" t="n">
-        <v>7036125</v>
+        <v>7036031</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131143987</v>
+        <v>131144287</v>
       </c>
       <c r="B12" t="n">
         <v>80349</v>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>503418</v>
+        <v>503222</v>
       </c>
       <c r="R12" t="n">
-        <v>7036017</v>
+        <v>7035916</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131143990</v>
+        <v>131144272</v>
       </c>
       <c r="B13" t="n">
         <v>80349</v>
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503447</v>
+        <v>503267</v>
       </c>
       <c r="R13" t="n">
-        <v>7036031</v>
+        <v>7036125</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131144287</v>
+        <v>131143987</v>
       </c>
       <c r="B14" t="n">
         <v>80349</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>503222</v>
+        <v>503418</v>
       </c>
       <c r="R14" t="n">
-        <v>7035916</v>
+        <v>7036017</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131144294</v>
+        <v>131144269</v>
       </c>
       <c r="B35" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5017,21 +5017,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -5044,10 +5044,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>503563</v>
+        <v>503190</v>
       </c>
       <c r="R35" t="n">
-        <v>7036044</v>
+        <v>7035938</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5137,10 +5137,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131144264</v>
+        <v>131144294</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5148,31 +5148,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5180,10 +5175,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>503447</v>
+        <v>503563</v>
       </c>
       <c r="R36" t="n">
-        <v>7035991</v>
+        <v>7036044</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5220,7 +5215,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5229,6 +5224,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -5239,17 +5235,22 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5267,7 +5268,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131143967</v>
+        <v>131144264</v>
       </c>
       <c r="B37" t="n">
         <v>57884</v>
@@ -5300,7 +5301,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -5310,10 +5311,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>503201</v>
+        <v>503447</v>
       </c>
       <c r="R37" t="n">
-        <v>7036058</v>
+        <v>7035991</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5350,7 +5351,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack, färska, några meter upp på en granstam.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5367,11 +5368,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
-        </is>
-      </c>
       <c r="AJ37" t="inlineStr">
         <is>
           <t>gran</t>
@@ -5382,14 +5378,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5407,10 +5398,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131144259</v>
+        <v>131143967</v>
       </c>
       <c r="B38" t="n">
-        <v>91809</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5418,28 +5409,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -5449,10 +5441,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>503326</v>
+        <v>503201</v>
       </c>
       <c r="R38" t="n">
-        <v>7035948</v>
+        <v>7036058</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5487,13 +5479,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, några meter upp på en granstam.</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5502,6 +5498,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
+        </is>
+      </c>
       <c r="AJ38" t="inlineStr">
         <is>
           <t>gran</t>
@@ -5514,12 +5515,12 @@
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5537,10 +5538,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131144269</v>
+        <v>131144259</v>
       </c>
       <c r="B39" t="n">
-        <v>80350</v>
+        <v>91809</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5548,26 +5549,30 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5575,10 +5580,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>503190</v>
+        <v>503326</v>
       </c>
       <c r="R39" t="n">
-        <v>7035938</v>
+        <v>7035948</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5613,11 +5618,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
@@ -5635,22 +5635,22 @@
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131143992</v>
+        <v>131144270</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5679,21 +5679,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5706,10 +5706,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>503345</v>
+        <v>503423</v>
       </c>
       <c r="R40" t="n">
-        <v>7036137</v>
+        <v>7036145</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5744,6 +5744,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5761,17 +5766,22 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5789,7 +5799,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131144276</v>
+        <v>131144282</v>
       </c>
       <c r="B41" t="n">
         <v>80349</v>
@@ -5827,10 +5837,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>503155</v>
+        <v>503179</v>
       </c>
       <c r="R41" t="n">
-        <v>7035984</v>
+        <v>7035940</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5920,10 +5930,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131144267</v>
+        <v>131144276</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5931,31 +5941,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5963,10 +5968,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>503564</v>
+        <v>503155</v>
       </c>
       <c r="R42" t="n">
-        <v>7036045</v>
+        <v>7035984</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6003,7 +6008,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6012,6 +6017,7 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -6022,17 +6028,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6050,10 +6061,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131144263</v>
+        <v>131143992</v>
       </c>
       <c r="B43" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6061,31 +6072,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6093,10 +6099,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>503363</v>
+        <v>503345</v>
       </c>
       <c r="R43" t="n">
-        <v>7035960</v>
+        <v>7036137</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6131,17 +6137,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på en gran.</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -6160,14 +6162,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6185,10 +6182,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131144270</v>
+        <v>131144263</v>
       </c>
       <c r="B44" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6196,26 +6193,31 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6223,10 +6225,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>503423</v>
+        <v>503363</v>
       </c>
       <c r="R44" t="n">
-        <v>7036145</v>
+        <v>7035960</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6263,7 +6265,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6272,7 +6274,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6283,22 +6284,22 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,10 +6317,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131144282</v>
+        <v>131144267</v>
       </c>
       <c r="B45" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6327,26 +6328,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6354,10 +6360,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>503179</v>
+        <v>503564</v>
       </c>
       <c r="R45" t="n">
-        <v>7035940</v>
+        <v>7036045</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6394,7 +6400,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6403,7 +6409,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6414,22 +6419,17 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131144301</v>
+        <v>131144285</v>
       </c>
       <c r="B48" t="n">
-        <v>91829</v>
+        <v>80349</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6715,26 +6715,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>503583</v>
+        <v>503209</v>
       </c>
       <c r="R48" t="n">
-        <v>7036073</v>
+        <v>7035903</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6780,6 +6780,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
@@ -6797,17 +6802,22 @@
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6825,7 +6835,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131144285</v>
+        <v>131143979</v>
       </c>
       <c r="B49" t="n">
         <v>80349</v>
@@ -6863,10 +6873,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>503209</v>
+        <v>503343</v>
       </c>
       <c r="R49" t="n">
-        <v>7035903</v>
+        <v>7036013</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6899,11 +6909,6 @@
       <c r="AA49" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6956,10 +6961,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131143979</v>
+        <v>131144301</v>
       </c>
       <c r="B50" t="n">
-        <v>80349</v>
+        <v>91829</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6967,26 +6972,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6994,10 +6999,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>503343</v>
+        <v>503583</v>
       </c>
       <c r="R50" t="n">
-        <v>7036013</v>
+        <v>7036073</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7049,22 +7054,17 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7082,32 +7082,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131144300</v>
+        <v>131143983</v>
       </c>
       <c r="B51" t="n">
-        <v>80309</v>
+        <v>80349</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -7120,10 +7120,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>503318</v>
+        <v>503376</v>
       </c>
       <c r="R51" t="n">
-        <v>7035950</v>
+        <v>7035991</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7156,11 +7156,6 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7213,32 +7208,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131143983</v>
+        <v>131144300</v>
       </c>
       <c r="B52" t="n">
-        <v>80349</v>
+        <v>80309</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -7251,10 +7246,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>503376</v>
+        <v>503318</v>
       </c>
       <c r="R52" t="n">
-        <v>7035991</v>
+        <v>7035950</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7287,6 +7282,11 @@
       <c r="AA52" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7722,10 +7722,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131143982</v>
+        <v>131143997</v>
       </c>
       <c r="B56" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7733,21 +7733,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7760,10 +7760,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>503364</v>
+        <v>503416</v>
       </c>
       <c r="R56" t="n">
-        <v>7035989</v>
+        <v>7036029</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7815,22 +7815,17 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7848,10 +7843,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131144280</v>
+        <v>131143991</v>
       </c>
       <c r="B57" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7859,21 +7854,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7886,10 +7881,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>503251</v>
+        <v>503400</v>
       </c>
       <c r="R57" t="n">
-        <v>7035966</v>
+        <v>7036159</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7924,11 +7919,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -7946,22 +7936,17 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7979,10 +7964,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131144275</v>
+        <v>131143995</v>
       </c>
       <c r="B58" t="n">
-        <v>80349</v>
+        <v>79244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7990,21 +7975,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -8017,10 +8002,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>503195</v>
+        <v>503216</v>
       </c>
       <c r="R58" t="n">
-        <v>7036062</v>
+        <v>7036078</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8055,11 +8040,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -8077,22 +8057,17 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8110,7 +8085,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131144291</v>
+        <v>131143982</v>
       </c>
       <c r="B59" t="n">
         <v>80349</v>
@@ -8148,10 +8123,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>503317</v>
+        <v>503364</v>
       </c>
       <c r="R59" t="n">
-        <v>7035948</v>
+        <v>7035989</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8184,11 +8159,6 @@
       <c r="AA59" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -8241,7 +8211,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131144297</v>
+        <v>131144280</v>
       </c>
       <c r="B60" t="n">
         <v>80349</v>
@@ -8279,10 +8249,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>503354</v>
+        <v>503251</v>
       </c>
       <c r="R60" t="n">
-        <v>7036143</v>
+        <v>7035966</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8372,10 +8342,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131144260</v>
+        <v>131144275</v>
       </c>
       <c r="B61" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8383,31 +8353,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -8415,10 +8380,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>503332</v>
+        <v>503195</v>
       </c>
       <c r="R61" t="n">
-        <v>7035948</v>
+        <v>7036062</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8455,7 +8420,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -8464,6 +8429,7 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -8474,22 +8440,22 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM61" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -8507,10 +8473,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131144265</v>
+        <v>131144291</v>
       </c>
       <c r="B62" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8518,31 +8484,26 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -8550,10 +8511,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>503516</v>
+        <v>503317</v>
       </c>
       <c r="R62" t="n">
-        <v>7036022</v>
+        <v>7035948</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8590,7 +8551,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8599,6 +8560,7 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -8609,17 +8571,22 @@
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8637,10 +8604,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131143997</v>
+        <v>131144297</v>
       </c>
       <c r="B63" t="n">
-        <v>79244</v>
+        <v>80349</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8648,21 +8615,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -8675,10 +8642,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>503416</v>
+        <v>503354</v>
       </c>
       <c r="R63" t="n">
-        <v>7036029</v>
+        <v>7036143</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8713,6 +8680,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
@@ -8730,17 +8702,22 @@
       </c>
       <c r="AJ63" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8758,10 +8735,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131143991</v>
+        <v>131144260</v>
       </c>
       <c r="B64" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8769,26 +8746,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8796,10 +8778,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>503400</v>
+        <v>503332</v>
       </c>
       <c r="R64" t="n">
-        <v>7036159</v>
+        <v>7035948</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8834,13 +8816,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8859,9 +8845,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM64" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8879,10 +8870,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131143995</v>
+        <v>131144265</v>
       </c>
       <c r="B65" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8890,26 +8881,31 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8917,10 +8913,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>503216</v>
+        <v>503516</v>
       </c>
       <c r="R65" t="n">
-        <v>7036078</v>
+        <v>7036022</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8955,13 +8951,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -9914,10 +9914,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131144261</v>
+        <v>131144289</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9925,31 +9925,26 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -9957,10 +9952,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>503332</v>
+        <v>503258</v>
       </c>
       <c r="R73" t="n">
-        <v>7035950</v>
+        <v>7035952</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9997,7 +9992,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -10006,6 +10001,7 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -10016,22 +10012,22 @@
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -10049,10 +10045,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131144289</v>
+        <v>131144261</v>
       </c>
       <c r="B74" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -10060,26 +10056,31 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -10087,10 +10088,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>503258</v>
+        <v>503332</v>
       </c>
       <c r="R74" t="n">
-        <v>7035952</v>
+        <v>7035950</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -10127,7 +10128,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -10136,7 +10137,6 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -10147,22 +10147,22 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>

--- a/artfynd/A 379-2026 artfynd.xlsx
+++ b/artfynd/A 379-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131143977</v>
       </c>
       <c r="B2" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -815,39 +815,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131143975</v>
+        <v>131144266</v>
       </c>
       <c r="B3" t="n">
-        <v>80378</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -857,10 +858,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503441</v>
+        <v>503547</v>
       </c>
       <c r="R3" t="n">
-        <v>7036004</v>
+        <v>7036037</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -897,7 +898,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +907,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -917,22 +917,22 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -950,10 +950,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131143973</v>
+        <v>131143975</v>
       </c>
       <c r="B4" t="n">
-        <v>80378</v>
+        <v>80379</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -980,7 +980,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -988,10 +992,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503418</v>
+        <v>503441</v>
       </c>
       <c r="R4" t="n">
-        <v>7036017</v>
+        <v>7036004</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1081,42 +1085,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131144266</v>
+        <v>131143973</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>80379</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1124,10 +1123,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503547</v>
+        <v>503418</v>
       </c>
       <c r="R5" t="n">
-        <v>7036037</v>
+        <v>7036017</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1163,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1173,6 +1172,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1216,10 +1216,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131143978</v>
+        <v>131143999</v>
       </c>
       <c r="B6" t="n">
-        <v>80349</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1227,21 +1227,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>503218</v>
+        <v>503460</v>
       </c>
       <c r="R6" t="n">
-        <v>7036101</v>
+        <v>7036014</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1292,11 +1292,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1314,22 +1309,17 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1347,10 +1337,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131144271</v>
+        <v>131143978</v>
       </c>
       <c r="B7" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1385,10 +1375,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>503292</v>
+        <v>503218</v>
       </c>
       <c r="R7" t="n">
-        <v>7036126</v>
+        <v>7036101</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1481,7 +1471,7 @@
         <v>131144288</v>
       </c>
       <c r="B8" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1609,10 +1599,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131144278</v>
+        <v>131144271</v>
       </c>
       <c r="B9" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1647,10 +1637,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>503277</v>
+        <v>503292</v>
       </c>
       <c r="R9" t="n">
-        <v>7035964</v>
+        <v>7036126</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1740,10 +1730,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131143999</v>
+        <v>131144278</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>80350</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1751,21 +1741,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1778,10 +1768,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>503460</v>
+        <v>503277</v>
       </c>
       <c r="R10" t="n">
-        <v>7036014</v>
+        <v>7035964</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1816,6 +1806,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1833,17 +1828,22 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131143990</v>
+        <v>131144287</v>
       </c>
       <c r="B11" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503447</v>
+        <v>503222</v>
       </c>
       <c r="R11" t="n">
-        <v>7036031</v>
+        <v>7035916</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131144287</v>
+        <v>131143990</v>
       </c>
       <c r="B12" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>503222</v>
+        <v>503447</v>
       </c>
       <c r="R12" t="n">
-        <v>7035916</v>
+        <v>7036031</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2126,7 +2126,7 @@
         <v>131144272</v>
       </c>
       <c r="B13" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>131143987</v>
       </c>
       <c r="B14" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>131144279</v>
       </c>
       <c r="B15" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>131144296</v>
       </c>
       <c r="B16" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>131143980</v>
       </c>
       <c r="B17" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>131144292</v>
       </c>
       <c r="B18" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>131143984</v>
       </c>
       <c r="B19" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>131144274</v>
       </c>
       <c r="B20" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>131143986</v>
       </c>
       <c r="B21" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>131143972</v>
       </c>
       <c r="B22" t="n">
-        <v>80378</v>
+        <v>80379</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>131143976</v>
       </c>
       <c r="B23" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>131143989</v>
       </c>
       <c r="B24" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>131143998</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>131144299</v>
       </c>
       <c r="B26" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>131144290</v>
       </c>
       <c r="B27" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>131144284</v>
       </c>
       <c r="B28" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>131143988</v>
       </c>
       <c r="B29" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>131143993</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>131143994</v>
       </c>
       <c r="B31" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4604,10 +4604,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131144281</v>
+        <v>131144293</v>
       </c>
       <c r="B32" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4642,10 +4642,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>503194</v>
+        <v>503484</v>
       </c>
       <c r="R32" t="n">
-        <v>7035963</v>
+        <v>7036019</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131144293</v>
+        <v>131144281</v>
       </c>
       <c r="B33" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4773,10 +4773,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>503484</v>
+        <v>503194</v>
       </c>
       <c r="R33" t="n">
-        <v>7036019</v>
+        <v>7035963</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4866,10 +4866,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131143996</v>
+        <v>131144269</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>80351</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4877,30 +4877,26 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4908,10 +4904,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>503386</v>
+        <v>503190</v>
       </c>
       <c r="R34" t="n">
-        <v>7036016</v>
+        <v>7035938</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4948,7 +4944,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4966,29 +4962,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
-        </is>
-      </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5006,10 +4997,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131144269</v>
+        <v>131144259</v>
       </c>
       <c r="B35" t="n">
-        <v>80350</v>
+        <v>91810</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5017,26 +5008,30 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5044,10 +5039,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>503190</v>
+        <v>503326</v>
       </c>
       <c r="R35" t="n">
-        <v>7035938</v>
+        <v>7035948</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5082,11 +5077,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
@@ -5104,22 +5094,22 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5137,10 +5127,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131144294</v>
+        <v>131143996</v>
       </c>
       <c r="B36" t="n">
-        <v>80349</v>
+        <v>79245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5148,26 +5138,30 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5175,10 +5169,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>503563</v>
+        <v>503386</v>
       </c>
       <c r="R36" t="n">
-        <v>7036044</v>
+        <v>7036016</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5215,7 +5209,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5233,24 +5227,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
+        </is>
+      </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5268,10 +5267,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131144264</v>
+        <v>131144294</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5279,31 +5278,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5311,10 +5305,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>503447</v>
+        <v>503563</v>
       </c>
       <c r="R37" t="n">
-        <v>7035991</v>
+        <v>7036044</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5351,7 +5345,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5360,6 +5354,7 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -5370,17 +5365,22 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131143967</v>
+        <v>131144264</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -5431,7 +5431,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -5441,10 +5441,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>503201</v>
+        <v>503447</v>
       </c>
       <c r="R38" t="n">
-        <v>7036058</v>
+        <v>7035991</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack, färska, några meter upp på en granstam.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5498,11 +5498,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
-        </is>
-      </c>
       <c r="AJ38" t="inlineStr">
         <is>
           <t>gran</t>
@@ -5513,14 +5508,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5538,10 +5528,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131144259</v>
+        <v>131143967</v>
       </c>
       <c r="B39" t="n">
-        <v>91809</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5549,28 +5539,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -5580,10 +5571,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>503326</v>
+        <v>503201</v>
       </c>
       <c r="R39" t="n">
-        <v>7035948</v>
+        <v>7036058</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5618,13 +5609,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, några meter upp på en granstam.</t>
+        </is>
+      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5633,6 +5628,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
+        </is>
+      </c>
       <c r="AJ39" t="inlineStr">
         <is>
           <t>gran</t>
@@ -5645,12 +5645,12 @@
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131144270</v>
+        <v>131143992</v>
       </c>
       <c r="B40" t="n">
-        <v>80349</v>
+        <v>79245</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5679,21 +5679,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5706,10 +5706,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>503423</v>
+        <v>503345</v>
       </c>
       <c r="R40" t="n">
-        <v>7036145</v>
+        <v>7036137</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5744,11 +5744,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5766,22 +5761,17 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5799,10 +5789,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131144282</v>
+        <v>131144270</v>
       </c>
       <c r="B41" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5837,10 +5827,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>503179</v>
+        <v>503423</v>
       </c>
       <c r="R41" t="n">
-        <v>7035940</v>
+        <v>7036145</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5930,10 +5920,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131144276</v>
+        <v>131144267</v>
       </c>
       <c r="B42" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5941,26 +5931,31 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5968,10 +5963,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>503155</v>
+        <v>503564</v>
       </c>
       <c r="R42" t="n">
-        <v>7035984</v>
+        <v>7036045</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6008,7 +6003,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6017,7 +6012,6 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -6028,22 +6022,17 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6061,10 +6050,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131143992</v>
+        <v>131144263</v>
       </c>
       <c r="B43" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6072,26 +6061,31 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6099,10 +6093,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>503345</v>
+        <v>503363</v>
       </c>
       <c r="R43" t="n">
-        <v>7036137</v>
+        <v>7035960</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6137,13 +6131,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på en gran.</t>
+        </is>
+      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -6162,9 +6160,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6182,10 +6185,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131144263</v>
+        <v>131144282</v>
       </c>
       <c r="B44" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6193,31 +6196,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6225,10 +6223,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>503363</v>
+        <v>503179</v>
       </c>
       <c r="R44" t="n">
-        <v>7035960</v>
+        <v>7035940</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6265,7 +6263,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6274,6 +6272,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6284,22 +6283,22 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6317,10 +6316,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131144267</v>
+        <v>131144276</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6328,31 +6327,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6360,10 +6354,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>503564</v>
+        <v>503155</v>
       </c>
       <c r="R45" t="n">
-        <v>7036045</v>
+        <v>7035984</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6400,7 +6394,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6409,6 +6403,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6419,17 +6414,22 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6450,7 +6450,7 @@
         <v>131144295</v>
       </c>
       <c r="B46" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>131143981</v>
       </c>
       <c r="B47" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>131144285</v>
       </c>
       <c r="B48" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6835,10 +6835,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131143979</v>
+        <v>131144301</v>
       </c>
       <c r="B49" t="n">
-        <v>80349</v>
+        <v>91830</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6846,26 +6846,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6873,10 +6873,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>503343</v>
+        <v>503583</v>
       </c>
       <c r="R49" t="n">
-        <v>7036013</v>
+        <v>7036073</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6928,22 +6928,17 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6961,10 +6956,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131144301</v>
+        <v>131143979</v>
       </c>
       <c r="B50" t="n">
-        <v>91829</v>
+        <v>80350</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6972,26 +6967,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6999,10 +6994,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>503583</v>
+        <v>503343</v>
       </c>
       <c r="R50" t="n">
-        <v>7036073</v>
+        <v>7036013</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7054,17 +7049,22 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7082,32 +7082,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131143983</v>
+        <v>131144300</v>
       </c>
       <c r="B51" t="n">
-        <v>80349</v>
+        <v>80310</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -7120,10 +7120,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>503376</v>
+        <v>503318</v>
       </c>
       <c r="R51" t="n">
-        <v>7035991</v>
+        <v>7035950</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7156,6 +7156,11 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7208,32 +7213,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131144300</v>
+        <v>131143983</v>
       </c>
       <c r="B52" t="n">
-        <v>80309</v>
+        <v>80350</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -7246,10 +7251,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>503318</v>
+        <v>503376</v>
       </c>
       <c r="R52" t="n">
-        <v>7035950</v>
+        <v>7035991</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7282,11 +7287,6 @@
       <c r="AA52" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7342,7 +7342,7 @@
         <v>131144000</v>
       </c>
       <c r="B53" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>131144286</v>
       </c>
       <c r="B54" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>131144277</v>
       </c>
       <c r="B55" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -7722,10 +7722,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131143997</v>
+        <v>131144260</v>
       </c>
       <c r="B56" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7733,26 +7733,31 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7760,10 +7765,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>503416</v>
+        <v>503332</v>
       </c>
       <c r="R56" t="n">
-        <v>7036029</v>
+        <v>7035948</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7798,13 +7803,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7823,9 +7832,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7843,10 +7857,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131143991</v>
+        <v>131144265</v>
       </c>
       <c r="B57" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7854,26 +7868,31 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7881,10 +7900,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>503400</v>
+        <v>503516</v>
       </c>
       <c r="R57" t="n">
-        <v>7036159</v>
+        <v>7036022</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7919,13 +7938,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7964,10 +7987,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131143995</v>
+        <v>131143997</v>
       </c>
       <c r="B58" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -8002,10 +8025,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>503216</v>
+        <v>503416</v>
       </c>
       <c r="R58" t="n">
-        <v>7036078</v>
+        <v>7036029</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8085,10 +8108,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131143982</v>
+        <v>131144291</v>
       </c>
       <c r="B59" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -8123,10 +8146,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>503364</v>
+        <v>503317</v>
       </c>
       <c r="R59" t="n">
-        <v>7035989</v>
+        <v>7035948</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8159,6 +8182,11 @@
       <c r="AA59" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -8211,10 +8239,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131144280</v>
+        <v>131143991</v>
       </c>
       <c r="B60" t="n">
-        <v>80349</v>
+        <v>79245</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -8222,21 +8250,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -8249,10 +8277,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>503251</v>
+        <v>503400</v>
       </c>
       <c r="R60" t="n">
-        <v>7035966</v>
+        <v>7036159</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8287,11 +8315,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
@@ -8309,22 +8332,17 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM60" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8342,10 +8360,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131144275</v>
+        <v>131144297</v>
       </c>
       <c r="B61" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8380,10 +8398,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>503195</v>
+        <v>503354</v>
       </c>
       <c r="R61" t="n">
-        <v>7036062</v>
+        <v>7036143</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8473,10 +8491,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131144291</v>
+        <v>131143995</v>
       </c>
       <c r="B62" t="n">
-        <v>80349</v>
+        <v>79245</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8484,21 +8502,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -8511,10 +8529,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>503317</v>
+        <v>503216</v>
       </c>
       <c r="R62" t="n">
-        <v>7035948</v>
+        <v>7036078</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8549,11 +8567,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
@@ -8571,22 +8584,17 @@
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM62" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8604,10 +8612,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131144297</v>
+        <v>131143982</v>
       </c>
       <c r="B63" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8642,10 +8650,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>503354</v>
+        <v>503364</v>
       </c>
       <c r="R63" t="n">
-        <v>7036143</v>
+        <v>7035989</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8678,11 +8686,6 @@
       <c r="AA63" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8735,10 +8738,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131144260</v>
+        <v>131144280</v>
       </c>
       <c r="B64" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8746,31 +8749,26 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8778,10 +8776,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>503332</v>
+        <v>503251</v>
       </c>
       <c r="R64" t="n">
-        <v>7035948</v>
+        <v>7035966</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8818,7 +8816,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8827,6 +8825,7 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8837,22 +8836,22 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8870,10 +8869,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131144265</v>
+        <v>131144275</v>
       </c>
       <c r="B65" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8881,31 +8880,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8913,10 +8907,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>503516</v>
+        <v>503195</v>
       </c>
       <c r="R65" t="n">
-        <v>7036022</v>
+        <v>7036062</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8953,7 +8947,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8962,6 +8956,7 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8972,17 +8967,22 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM65" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -9003,7 +9003,7 @@
         <v>131144001</v>
       </c>
       <c r="B66" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -9121,41 +9121,37 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131144268</v>
+        <v>131144298</v>
       </c>
       <c r="B67" t="n">
-        <v>80378</v>
+        <v>80350</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -9163,10 +9159,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>503554</v>
+        <v>503191</v>
       </c>
       <c r="R67" t="n">
-        <v>7036090</v>
+        <v>7035913</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -9256,10 +9252,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131143968</v>
+        <v>131144268</v>
       </c>
       <c r="B68" t="n">
-        <v>80378</v>
+        <v>80379</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -9298,10 +9294,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>503216</v>
+        <v>503554</v>
       </c>
       <c r="R68" t="n">
-        <v>7036102</v>
+        <v>7036090</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9391,37 +9387,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131144283</v>
+        <v>131143968</v>
       </c>
       <c r="B69" t="n">
-        <v>80349</v>
+        <v>80379</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -9429,10 +9429,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>503196</v>
+        <v>503216</v>
       </c>
       <c r="R69" t="n">
-        <v>7035909</v>
+        <v>7036102</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9522,32 +9522,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131143974</v>
+        <v>131144283</v>
       </c>
       <c r="B70" t="n">
-        <v>80378</v>
+        <v>80350</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -9560,10 +9560,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>503424</v>
+        <v>503196</v>
       </c>
       <c r="R70" t="n">
-        <v>7036001</v>
+        <v>7035909</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9653,32 +9653,32 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131144298</v>
+        <v>131143974</v>
       </c>
       <c r="B71" t="n">
-        <v>80349</v>
+        <v>80379</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9691,10 +9691,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>503191</v>
+        <v>503424</v>
       </c>
       <c r="R71" t="n">
-        <v>7035913</v>
+        <v>7036001</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9917,7 +9917,7 @@
         <v>131144289</v>
       </c>
       <c r="B73" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>131144302</v>
       </c>
       <c r="B75" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -10301,41 +10301,37 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131143970</v>
+        <v>131144273</v>
       </c>
       <c r="B76" t="n">
-        <v>80378</v>
+        <v>80350</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -10343,10 +10339,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>503376</v>
+        <v>503267</v>
       </c>
       <c r="R76" t="n">
-        <v>7035991</v>
+        <v>7036145</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10379,6 +10375,11 @@
       <c r="AA76" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -10431,37 +10432,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131144273</v>
+        <v>131143970</v>
       </c>
       <c r="B77" t="n">
-        <v>80349</v>
+        <v>80379</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -10469,10 +10474,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>503267</v>
+        <v>503376</v>
       </c>
       <c r="R77" t="n">
-        <v>7036145</v>
+        <v>7035991</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10505,11 +10510,6 @@
       <c r="AA77" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 379-2026 artfynd.xlsx
+++ b/artfynd/A 379-2026 artfynd.xlsx
@@ -1861,7 +1861,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131144287</v>
+        <v>131143990</v>
       </c>
       <c r="B11" t="n">
         <v>80350</v>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503222</v>
+        <v>503447</v>
       </c>
       <c r="R11" t="n">
-        <v>7035916</v>
+        <v>7036031</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131143990</v>
+        <v>131144272</v>
       </c>
       <c r="B12" t="n">
         <v>80350</v>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>503447</v>
+        <v>503267</v>
       </c>
       <c r="R12" t="n">
-        <v>7036031</v>
+        <v>7036125</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131144272</v>
+        <v>131143987</v>
       </c>
       <c r="B13" t="n">
         <v>80350</v>
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503267</v>
+        <v>503418</v>
       </c>
       <c r="R13" t="n">
-        <v>7036125</v>
+        <v>7036017</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131143987</v>
+        <v>131144287</v>
       </c>
       <c r="B14" t="n">
         <v>80350</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>503418</v>
+        <v>503222</v>
       </c>
       <c r="R14" t="n">
-        <v>7036017</v>
+        <v>7035916</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -3315,41 +3315,37 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131143972</v>
+        <v>131143998</v>
       </c>
       <c r="B22" t="n">
-        <v>80379</v>
+        <v>79245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3357,10 +3353,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>503377</v>
+        <v>503444</v>
       </c>
       <c r="R22" t="n">
-        <v>7036016</v>
+        <v>7036006</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3397,7 +3393,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3417,22 +3413,17 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3450,37 +3441,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131143976</v>
+        <v>131143972</v>
       </c>
       <c r="B23" t="n">
-        <v>80350</v>
+        <v>80379</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3488,10 +3483,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>503419</v>
+        <v>503377</v>
       </c>
       <c r="R23" t="n">
-        <v>7036154</v>
+        <v>7036016</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3524,6 +3519,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3576,7 +3576,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131143989</v>
+        <v>131143976</v>
       </c>
       <c r="B24" t="n">
         <v>80350</v>
@@ -3614,10 +3614,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>503448</v>
+        <v>503419</v>
       </c>
       <c r="R24" t="n">
-        <v>7036030</v>
+        <v>7036154</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3652,11 +3652,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Lunglav på en gran vid en rönn med lunglav.</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3674,22 +3669,22 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3707,10 +3702,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131143998</v>
+        <v>131143989</v>
       </c>
       <c r="B25" t="n">
-        <v>79245</v>
+        <v>80350</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3718,21 +3713,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3745,10 +3740,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>503444</v>
+        <v>503448</v>
       </c>
       <c r="R25" t="n">
-        <v>7036006</v>
+        <v>7036030</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3785,7 +3780,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Lunglav på en gran vid en rönn med lunglav.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3813,9 +3808,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131144267</v>
+        <v>131144282</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5931,31 +5931,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5963,10 +5958,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>503564</v>
+        <v>503179</v>
       </c>
       <c r="R42" t="n">
-        <v>7036045</v>
+        <v>7035940</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6003,7 +5998,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6012,6 +6007,7 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -6022,17 +6018,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6050,10 +6051,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131144263</v>
+        <v>131144276</v>
       </c>
       <c r="B43" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6061,31 +6062,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6093,10 +6089,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>503363</v>
+        <v>503155</v>
       </c>
       <c r="R43" t="n">
-        <v>7035960</v>
+        <v>7035984</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6133,7 +6129,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6142,6 +6138,7 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -6152,22 +6149,22 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6185,10 +6182,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131144282</v>
+        <v>131144267</v>
       </c>
       <c r="B44" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6196,26 +6193,31 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6223,10 +6225,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>503179</v>
+        <v>503564</v>
       </c>
       <c r="R44" t="n">
-        <v>7035940</v>
+        <v>7036045</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6263,7 +6265,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6272,7 +6274,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -6283,22 +6284,17 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6316,10 +6312,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131144276</v>
+        <v>131144263</v>
       </c>
       <c r="B45" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -6327,26 +6323,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6354,10 +6355,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>503155</v>
+        <v>503363</v>
       </c>
       <c r="R45" t="n">
-        <v>7035984</v>
+        <v>7035960</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -6394,7 +6395,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6403,7 +6404,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6414,22 +6414,22 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -10180,37 +10180,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131144302</v>
+        <v>131143970</v>
       </c>
       <c r="B75" t="n">
-        <v>79245</v>
+        <v>80379</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -10218,10 +10222,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>503606</v>
+        <v>503376</v>
       </c>
       <c r="R75" t="n">
-        <v>7036064</v>
+        <v>7035991</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -10273,17 +10277,22 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM75" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -10301,10 +10310,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131144273</v>
+        <v>131144302</v>
       </c>
       <c r="B76" t="n">
-        <v>80350</v>
+        <v>79245</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -10312,21 +10321,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -10339,10 +10348,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>503267</v>
+        <v>503606</v>
       </c>
       <c r="R76" t="n">
-        <v>7036145</v>
+        <v>7036064</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10377,11 +10386,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -10399,22 +10403,17 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10432,41 +10431,37 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131143970</v>
+        <v>131144273</v>
       </c>
       <c r="B77" t="n">
-        <v>80379</v>
+        <v>80350</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -10474,10 +10469,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>503376</v>
+        <v>503267</v>
       </c>
       <c r="R77" t="n">
-        <v>7035991</v>
+        <v>7036145</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10510,6 +10505,11 @@
       <c r="AA77" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 379-2026 artfynd.xlsx
+++ b/artfynd/A 379-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131143977</v>
+        <v>131144266</v>
       </c>
       <c r="B2" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,28 +691,29 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -722,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503254</v>
+        <v>503547</v>
       </c>
       <c r="R2" t="n">
-        <v>7036092</v>
+        <v>7036037</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -762,7 +763,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -771,7 +772,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -782,22 +782,22 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -815,40 +815,39 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131144266</v>
+        <v>131143975</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>80379</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -858,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503547</v>
+        <v>503441</v>
       </c>
       <c r="R3" t="n">
-        <v>7036037</v>
+        <v>7036004</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -898,7 +897,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -907,6 +906,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -917,22 +917,22 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -950,7 +950,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131143975</v>
+        <v>131143973</v>
       </c>
       <c r="B4" t="n">
         <v>80379</v>
@@ -980,11 +980,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -992,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503441</v>
+        <v>503418</v>
       </c>
       <c r="R4" t="n">
-        <v>7036004</v>
+        <v>7036017</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1085,37 +1081,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131143973</v>
+        <v>131143977</v>
       </c>
       <c r="B5" t="n">
-        <v>80379</v>
+        <v>80350</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503418</v>
+        <v>503254</v>
       </c>
       <c r="R5" t="n">
-        <v>7036017</v>
+        <v>7036092</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -3315,37 +3315,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131143998</v>
+        <v>131143972</v>
       </c>
       <c r="B22" t="n">
-        <v>79245</v>
+        <v>80379</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3353,10 +3357,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>503444</v>
+        <v>503377</v>
       </c>
       <c r="R22" t="n">
-        <v>7036006</v>
+        <v>7036016</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3393,7 +3397,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3413,17 +3417,22 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3441,41 +3450,37 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131143972</v>
+        <v>131143976</v>
       </c>
       <c r="B23" t="n">
-        <v>80379</v>
+        <v>80350</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3483,10 +3488,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>503377</v>
+        <v>503419</v>
       </c>
       <c r="R23" t="n">
-        <v>7036016</v>
+        <v>7036154</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3519,11 +3524,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3576,7 +3576,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131143976</v>
+        <v>131143989</v>
       </c>
       <c r="B24" t="n">
         <v>80350</v>
@@ -3614,10 +3614,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>503419</v>
+        <v>503448</v>
       </c>
       <c r="R24" t="n">
-        <v>7036154</v>
+        <v>7036030</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3652,6 +3652,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Lunglav på en gran vid en rönn med lunglav.</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3669,22 +3674,22 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3702,10 +3707,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131143989</v>
+        <v>131143998</v>
       </c>
       <c r="B25" t="n">
-        <v>80350</v>
+        <v>79245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3713,21 +3718,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3740,10 +3745,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>503448</v>
+        <v>503444</v>
       </c>
       <c r="R25" t="n">
-        <v>7036030</v>
+        <v>7036006</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3780,7 +3785,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Lunglav på en gran vid en rönn med lunglav.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3808,14 +3813,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131143993</v>
+        <v>131144281</v>
       </c>
       <c r="B30" t="n">
-        <v>79245</v>
+        <v>80350</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4363,21 +4363,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>503307</v>
+        <v>503194</v>
       </c>
       <c r="R30" t="n">
-        <v>7036124</v>
+        <v>7035963</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4450,17 +4450,22 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4478,7 +4483,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131143994</v>
+        <v>131143993</v>
       </c>
       <c r="B31" t="n">
         <v>79245</v>
@@ -4516,10 +4521,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>503252</v>
+        <v>503307</v>
       </c>
       <c r="R31" t="n">
-        <v>7036082</v>
+        <v>7036124</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4604,10 +4609,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131144293</v>
+        <v>131143994</v>
       </c>
       <c r="B32" t="n">
-        <v>80350</v>
+        <v>79245</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4615,21 +4620,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4642,10 +4647,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>503484</v>
+        <v>503252</v>
       </c>
       <c r="R32" t="n">
-        <v>7036019</v>
+        <v>7036082</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4682,7 +4687,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4702,22 +4707,17 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131144281</v>
+        <v>131144293</v>
       </c>
       <c r="B33" t="n">
         <v>80350</v>
@@ -4773,10 +4773,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>503194</v>
+        <v>503484</v>
       </c>
       <c r="R33" t="n">
-        <v>7035963</v>
+        <v>7036019</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -10180,41 +10180,37 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131143970</v>
+        <v>131144302</v>
       </c>
       <c r="B75" t="n">
-        <v>80379</v>
+        <v>79245</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -10222,10 +10218,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>503376</v>
+        <v>503606</v>
       </c>
       <c r="R75" t="n">
-        <v>7035991</v>
+        <v>7036064</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -10277,22 +10273,17 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM75" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -10310,10 +10301,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131144302</v>
+        <v>131144273</v>
       </c>
       <c r="B76" t="n">
-        <v>79245</v>
+        <v>80350</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -10321,21 +10312,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -10348,10 +10339,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>503606</v>
+        <v>503267</v>
       </c>
       <c r="R76" t="n">
-        <v>7036064</v>
+        <v>7036145</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10386,6 +10377,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -10403,17 +10399,22 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10431,37 +10432,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131144273</v>
+        <v>131143970</v>
       </c>
       <c r="B77" t="n">
-        <v>80350</v>
+        <v>80379</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -10469,10 +10474,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>503267</v>
+        <v>503376</v>
       </c>
       <c r="R77" t="n">
-        <v>7036145</v>
+        <v>7035991</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10505,11 +10510,6 @@
       <c r="AA77" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD77" t="b">

--- a/artfynd/A 379-2026 artfynd.xlsx
+++ b/artfynd/A 379-2026 artfynd.xlsx
@@ -815,39 +815,39 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131143975</v>
+        <v>131143977</v>
       </c>
       <c r="B3" t="n">
-        <v>80379</v>
+        <v>80350</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>med apothecier</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503441</v>
+        <v>503254</v>
       </c>
       <c r="R3" t="n">
-        <v>7036004</v>
+        <v>7036092</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131143973</v>
+        <v>131143975</v>
       </c>
       <c r="B4" t="n">
         <v>80379</v>
@@ -980,7 +980,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -988,10 +992,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503418</v>
+        <v>503441</v>
       </c>
       <c r="R4" t="n">
-        <v>7036017</v>
+        <v>7036004</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1081,41 +1085,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131143977</v>
+        <v>131143973</v>
       </c>
       <c r="B5" t="n">
-        <v>80350</v>
+        <v>80379</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503254</v>
+        <v>503418</v>
       </c>
       <c r="R5" t="n">
-        <v>7036092</v>
+        <v>7036017</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131144271</v>
+        <v>131144278</v>
       </c>
       <c r="B9" t="n">
         <v>80350</v>
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>503292</v>
+        <v>503277</v>
       </c>
       <c r="R9" t="n">
-        <v>7036126</v>
+        <v>7035964</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131144278</v>
+        <v>131144271</v>
       </c>
       <c r="B10" t="n">
         <v>80350</v>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>503277</v>
+        <v>503292</v>
       </c>
       <c r="R10" t="n">
-        <v>7035964</v>
+        <v>7036126</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131144272</v>
+        <v>131144287</v>
       </c>
       <c r="B12" t="n">
         <v>80350</v>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>503267</v>
+        <v>503222</v>
       </c>
       <c r="R12" t="n">
-        <v>7036125</v>
+        <v>7035916</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131143987</v>
+        <v>131144272</v>
       </c>
       <c r="B13" t="n">
         <v>80350</v>
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503418</v>
+        <v>503267</v>
       </c>
       <c r="R13" t="n">
-        <v>7036017</v>
+        <v>7036125</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131144287</v>
+        <v>131143987</v>
       </c>
       <c r="B14" t="n">
         <v>80350</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>503222</v>
+        <v>503418</v>
       </c>
       <c r="R14" t="n">
-        <v>7035916</v>
+        <v>7036017</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131144281</v>
+        <v>131143993</v>
       </c>
       <c r="B30" t="n">
-        <v>80350</v>
+        <v>79245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4363,21 +4363,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>503194</v>
+        <v>503307</v>
       </c>
       <c r="R30" t="n">
-        <v>7035963</v>
+        <v>7036124</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4450,22 +4450,17 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4483,10 +4478,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131143993</v>
+        <v>131144281</v>
       </c>
       <c r="B31" t="n">
-        <v>79245</v>
+        <v>80350</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4494,21 +4489,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4521,10 +4516,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>503307</v>
+        <v>503194</v>
       </c>
       <c r="R31" t="n">
-        <v>7036124</v>
+        <v>7035963</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4561,7 +4556,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4581,17 +4576,22 @@
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4866,10 +4866,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131144269</v>
+        <v>131144264</v>
       </c>
       <c r="B34" t="n">
-        <v>80351</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4877,26 +4877,31 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4904,10 +4909,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>503190</v>
+        <v>503447</v>
       </c>
       <c r="R34" t="n">
-        <v>7035938</v>
+        <v>7035991</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4944,7 +4949,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4953,7 +4958,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4964,22 +4968,17 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4997,10 +4996,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131144259</v>
+        <v>131143967</v>
       </c>
       <c r="B35" t="n">
-        <v>91810</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5008,28 +5007,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -5039,10 +5039,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>503326</v>
+        <v>503201</v>
       </c>
       <c r="R35" t="n">
-        <v>7035948</v>
+        <v>7036058</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5077,13 +5077,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, några meter upp på en granstam.</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -5092,6 +5096,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
+        </is>
+      </c>
       <c r="AJ35" t="inlineStr">
         <is>
           <t>gran</t>
@@ -5104,12 +5113,12 @@
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5127,10 +5136,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131143996</v>
+        <v>131144269</v>
       </c>
       <c r="B36" t="n">
-        <v>79245</v>
+        <v>80351</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5138,30 +5147,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5169,10 +5174,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>503386</v>
+        <v>503190</v>
       </c>
       <c r="R36" t="n">
-        <v>7036016</v>
+        <v>7035938</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5209,7 +5214,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5227,29 +5232,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
-        </is>
-      </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5267,10 +5267,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131144294</v>
+        <v>131144259</v>
       </c>
       <c r="B37" t="n">
-        <v>80350</v>
+        <v>91813</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5278,26 +5278,30 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5305,10 +5309,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>503563</v>
+        <v>503326</v>
       </c>
       <c r="R37" t="n">
-        <v>7036044</v>
+        <v>7035948</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5343,11 +5347,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
@@ -5365,22 +5364,22 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5398,10 +5397,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131144264</v>
+        <v>131143996</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5409,29 +5408,28 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -5441,10 +5439,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>503447</v>
+        <v>503386</v>
       </c>
       <c r="R38" t="n">
-        <v>7035991</v>
+        <v>7036016</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5481,7 +5479,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Relativt rikligt med garnlav på flera granar. Långväxta bålar där vissa bålar är fertila med apothecier.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5490,6 +5488,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5498,6 +5497,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>Äldre flerskiktad granskog med stor stamdiameterspridning.</t>
+        </is>
+      </c>
       <c r="AJ38" t="inlineStr">
         <is>
           <t>gran</t>
@@ -5508,9 +5512,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5528,10 +5537,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131143967</v>
+        <v>131144294</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5539,31 +5548,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5571,10 +5575,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>503201</v>
+        <v>503563</v>
       </c>
       <c r="R39" t="n">
-        <v>7036058</v>
+        <v>7036044</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5611,7 +5615,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack, färska, några meter upp på en granstam.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5620,6 +5624,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5628,29 +5633,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog med stor stamdiameterspridning och ställvis gott om stående och liggande död ved.</t>
-        </is>
-      </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -6835,10 +6835,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131144301</v>
+        <v>131143979</v>
       </c>
       <c r="B49" t="n">
-        <v>91830</v>
+        <v>80350</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6846,26 +6846,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6873,10 +6873,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>503583</v>
+        <v>503343</v>
       </c>
       <c r="R49" t="n">
-        <v>7036073</v>
+        <v>7036013</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6928,17 +6928,22 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6956,10 +6961,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131143979</v>
+        <v>131144301</v>
       </c>
       <c r="B50" t="n">
-        <v>80350</v>
+        <v>91833</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6967,26 +6972,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6994,10 +6999,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>503343</v>
+        <v>503583</v>
       </c>
       <c r="R50" t="n">
-        <v>7036013</v>
+        <v>7036073</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -7049,22 +7054,17 @@
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -7082,32 +7082,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131144300</v>
+        <v>131143983</v>
       </c>
       <c r="B51" t="n">
-        <v>80310</v>
+        <v>80350</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -7120,10 +7120,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>503318</v>
+        <v>503376</v>
       </c>
       <c r="R51" t="n">
-        <v>7035950</v>
+        <v>7035991</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7156,11 +7156,6 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -7213,32 +7208,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131143983</v>
+        <v>131144300</v>
       </c>
       <c r="B52" t="n">
-        <v>80350</v>
+        <v>80310</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -7251,10 +7246,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>503376</v>
+        <v>503318</v>
       </c>
       <c r="R52" t="n">
-        <v>7035991</v>
+        <v>7035950</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7287,6 +7282,11 @@
       <c r="AA52" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7722,10 +7722,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131144260</v>
+        <v>131143982</v>
       </c>
       <c r="B56" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7733,31 +7733,26 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7765,10 +7760,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>503332</v>
+        <v>503364</v>
       </c>
       <c r="R56" t="n">
-        <v>7035948</v>
+        <v>7035989</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7803,17 +7798,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7824,22 +7815,22 @@
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM56" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7857,10 +7848,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131144265</v>
+        <v>131143997</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7868,31 +7859,26 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7900,10 +7886,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>503516</v>
+        <v>503416</v>
       </c>
       <c r="R57" t="n">
-        <v>7036022</v>
+        <v>7036029</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7938,17 +7924,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7987,10 +7969,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131143997</v>
+        <v>131144280</v>
       </c>
       <c r="B58" t="n">
-        <v>79245</v>
+        <v>80350</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -7998,21 +7980,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -8025,10 +8007,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>503416</v>
+        <v>503251</v>
       </c>
       <c r="R58" t="n">
-        <v>7036029</v>
+        <v>7035966</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -8063,6 +8045,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -8080,17 +8067,22 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -8108,7 +8100,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131144291</v>
+        <v>131144275</v>
       </c>
       <c r="B59" t="n">
         <v>80350</v>
@@ -8146,10 +8138,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>503317</v>
+        <v>503195</v>
       </c>
       <c r="R59" t="n">
-        <v>7035948</v>
+        <v>7036062</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -8239,10 +8231,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131143991</v>
+        <v>131144291</v>
       </c>
       <c r="B60" t="n">
-        <v>79245</v>
+        <v>80350</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -8250,21 +8242,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -8277,10 +8269,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>503400</v>
+        <v>503317</v>
       </c>
       <c r="R60" t="n">
-        <v>7036159</v>
+        <v>7035948</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -8315,6 +8307,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
@@ -8332,17 +8329,22 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -8360,10 +8362,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131144297</v>
+        <v>131143991</v>
       </c>
       <c r="B61" t="n">
-        <v>80350</v>
+        <v>79245</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8371,21 +8373,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -8398,10 +8400,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>503354</v>
+        <v>503400</v>
       </c>
       <c r="R61" t="n">
-        <v>7036143</v>
+        <v>7036159</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -8436,11 +8438,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
@@ -8458,22 +8455,17 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM61" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -8491,10 +8483,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131143995</v>
+        <v>131144297</v>
       </c>
       <c r="B62" t="n">
-        <v>79245</v>
+        <v>80350</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8502,21 +8494,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -8529,10 +8521,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>503216</v>
+        <v>503354</v>
       </c>
       <c r="R62" t="n">
-        <v>7036078</v>
+        <v>7036143</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -8567,6 +8559,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
@@ -8584,17 +8581,22 @@
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -8612,10 +8614,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131143982</v>
+        <v>131143995</v>
       </c>
       <c r="B63" t="n">
-        <v>80350</v>
+        <v>79245</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8623,21 +8625,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -8650,10 +8652,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>503364</v>
+        <v>503216</v>
       </c>
       <c r="R63" t="n">
-        <v>7035989</v>
+        <v>7036078</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8705,22 +8707,17 @@
       </c>
       <c r="AJ63" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM63" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -8738,10 +8735,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131144280</v>
+        <v>131144260</v>
       </c>
       <c r="B64" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8749,26 +8746,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8776,10 +8778,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>503251</v>
+        <v>503332</v>
       </c>
       <c r="R64" t="n">
-        <v>7035966</v>
+        <v>7035948</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8816,7 +8818,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8825,7 +8827,6 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8836,22 +8837,22 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8869,10 +8870,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131144275</v>
+        <v>131144265</v>
       </c>
       <c r="B65" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8880,26 +8881,31 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8907,10 +8913,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>503195</v>
+        <v>503516</v>
       </c>
       <c r="R65" t="n">
-        <v>7036062</v>
+        <v>7036022</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8947,7 +8953,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8956,7 +8962,6 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8967,22 +8972,17 @@
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM65" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -9000,37 +9000,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131144001</v>
+        <v>131144268</v>
       </c>
       <c r="B66" t="n">
-        <v>79245</v>
+        <v>80379</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -9038,10 +9042,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>503574</v>
+        <v>503554</v>
       </c>
       <c r="R66" t="n">
-        <v>7036113</v>
+        <v>7036090</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -9076,6 +9080,11 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
+        </is>
+      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
@@ -9093,17 +9102,22 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr"/>
@@ -9121,37 +9135,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131144298</v>
+        <v>131143968</v>
       </c>
       <c r="B67" t="n">
-        <v>80350</v>
+        <v>80379</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -9159,10 +9177,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>503191</v>
+        <v>503216</v>
       </c>
       <c r="R67" t="n">
-        <v>7035913</v>
+        <v>7036102</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -9252,41 +9270,37 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131144268</v>
+        <v>131144283</v>
       </c>
       <c r="B68" t="n">
-        <v>80379</v>
+        <v>80350</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -9294,10 +9308,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>503554</v>
+        <v>503196</v>
       </c>
       <c r="R68" t="n">
-        <v>7036090</v>
+        <v>7035909</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -9387,41 +9401,37 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131143968</v>
+        <v>131144001</v>
       </c>
       <c r="B69" t="n">
-        <v>80379</v>
+        <v>79245</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -9429,10 +9439,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>503216</v>
+        <v>503574</v>
       </c>
       <c r="R69" t="n">
-        <v>7036102</v>
+        <v>7036113</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -9467,11 +9477,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
@@ -9489,22 +9494,17 @@
       </c>
       <c r="AJ69" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM69" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -9522,32 +9522,32 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131144283</v>
+        <v>131143974</v>
       </c>
       <c r="B70" t="n">
-        <v>80350</v>
+        <v>80379</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -9560,10 +9560,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>503196</v>
+        <v>503424</v>
       </c>
       <c r="R70" t="n">
-        <v>7035909</v>
+        <v>7036001</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -9653,32 +9653,32 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131143974</v>
+        <v>131144298</v>
       </c>
       <c r="B71" t="n">
-        <v>80379</v>
+        <v>80350</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -9691,10 +9691,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>503424</v>
+        <v>503191</v>
       </c>
       <c r="R71" t="n">
-        <v>7036001</v>
+        <v>7035913</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -9914,10 +9914,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131144289</v>
+        <v>131144261</v>
       </c>
       <c r="B73" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9925,26 +9925,31 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -9952,10 +9957,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>503258</v>
+        <v>503332</v>
       </c>
       <c r="R73" t="n">
-        <v>7035952</v>
+        <v>7035950</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9992,7 +9997,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>På rönn.</t>
+          <t>Ringhack, färska, på en gran.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -10001,7 +10006,6 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -10012,22 +10016,22 @@
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -10045,10 +10049,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131144261</v>
+        <v>131144289</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -10056,31 +10060,26 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -10088,10 +10087,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>503332</v>
+        <v>503258</v>
       </c>
       <c r="R74" t="n">
-        <v>7035950</v>
+        <v>7035952</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -10128,7 +10127,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på en gran.</t>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -10137,6 +10136,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -10147,22 +10147,22 @@
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AM74" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -10180,37 +10180,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131144302</v>
+        <v>131143970</v>
       </c>
       <c r="B75" t="n">
-        <v>79245</v>
+        <v>80379</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -10218,10 +10222,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>503606</v>
+        <v>503376</v>
       </c>
       <c r="R75" t="n">
-        <v>7036064</v>
+        <v>7035991</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -10273,17 +10277,22 @@
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
+        </is>
+      </c>
+      <c r="AM75" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Bark on living woody plant # Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -10301,10 +10310,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131144273</v>
+        <v>131144302</v>
       </c>
       <c r="B76" t="n">
-        <v>80350</v>
+        <v>79245</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -10312,21 +10321,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -10339,10 +10348,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>503267</v>
+        <v>503606</v>
       </c>
       <c r="R76" t="n">
-        <v>7036145</v>
+        <v>7036064</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -10377,11 +10386,6 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>På rönn.</t>
-        </is>
-      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -10399,22 +10403,17 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
-        </is>
-      </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -10432,41 +10431,37 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131143970</v>
+        <v>131144273</v>
       </c>
       <c r="B77" t="n">
-        <v>80379</v>
+        <v>80350</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -10474,10 +10469,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>503376</v>
+        <v>503267</v>
       </c>
       <c r="R77" t="n">
-        <v>7035991</v>
+        <v>7036145</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -10510,6 +10505,11 @@
       <c r="AA77" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>På rönn.</t>
         </is>
       </c>
       <c r="AD77" t="b">
